--- a/descriptions.xlsx
+++ b/descriptions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ksree\OneDrive\Desktop\app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ananh\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D0564E-62C4-46AA-B0AC-51D9BD14695D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86B1F784-B0CF-4CCD-BD23-A451E0BF19A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kavya" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="413">
   <si>
     <t>Sialic acid analogues</t>
   </si>
@@ -1260,6 +1260,9 @@
   </si>
   <si>
     <t>C20H27NO11</t>
+  </si>
+  <si>
+    <t>Name</t>
   </si>
 </sst>
 </file>
@@ -1277,6 +1280,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1284,6 +1288,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1301,16 +1306,19 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1362,7 +1370,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1399,10 +1407,6 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1621,31 +1625,31 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z84"/>
+  <dimension ref="A1:Z156"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A63" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="45.77734375" customWidth="1"/>
-    <col min="2" max="2" width="81.33203125" style="23" customWidth="1"/>
-    <col min="3" max="3" width="17.109375" customWidth="1"/>
-    <col min="4" max="4" width="13.5546875" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" customWidth="1"/>
-    <col min="9" max="9" width="14.44140625" customWidth="1"/>
-    <col min="10" max="10" width="15.21875" customWidth="1"/>
-    <col min="11" max="11" width="15.77734375" customWidth="1"/>
-    <col min="12" max="12" width="16.21875" customWidth="1"/>
-    <col min="13" max="13" width="17.77734375" customWidth="1"/>
+    <col min="1" max="1" width="45.81640625" customWidth="1"/>
+    <col min="2" max="2" width="81.36328125" customWidth="1"/>
+    <col min="3" max="3" width="17.08984375" customWidth="1"/>
+    <col min="4" max="4" width="13.54296875" customWidth="1"/>
+    <col min="8" max="8" width="14.6328125" customWidth="1"/>
+    <col min="9" max="9" width="14.453125" customWidth="1"/>
+    <col min="10" max="10" width="15.1796875" customWidth="1"/>
+    <col min="11" max="11" width="15.81640625" customWidth="1"/>
+    <col min="12" max="12" width="16.1796875" customWidth="1"/>
+    <col min="13" max="13" width="17.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="20" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -1683,11 +1687,11 @@
       </c>
       <c r="N1" s="3"/>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -1725,11 +1729,11 @@
       </c>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -1766,11 +1770,11 @@
         <v>-1.5</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -1807,11 +1811,11 @@
         <v>-1.52</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -1848,11 +1852,11 @@
         <v>-2.19</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="6" t="s">
         <v>25</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -1889,11 +1893,11 @@
         <v>-3.05</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -1930,11 +1934,11 @@
         <v>-2.19</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -1971,11 +1975,11 @@
         <v>-2.19</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -2012,11 +2016,11 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -2053,11 +2057,11 @@
         <v>-2.19</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="6" t="s">
         <v>35</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -2094,11 +2098,11 @@
         <v>-2.1800000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="6" t="s">
         <v>37</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -2135,11 +2139,11 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" ht="15.75" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="6" t="s">
         <v>40</v>
       </c>
       <c r="C13" s="6" t="s">
@@ -2176,11 +2180,11 @@
         <v>-0.04</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" ht="15.75" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="6" t="s">
         <v>43</v>
       </c>
       <c r="C14" s="6" t="s">
@@ -2217,11 +2221,11 @@
         <v>-1.8</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" ht="15.75" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="6" t="s">
         <v>46</v>
       </c>
       <c r="C15" s="6" t="s">
@@ -2258,11 +2262,11 @@
         <v>-1.1100000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" ht="15.75" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="6" t="s">
         <v>49</v>
       </c>
       <c r="C16" s="6" t="s">
@@ -2299,11 +2303,11 @@
         <v>-2.94</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" ht="15.75" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="6" t="s">
         <v>52</v>
       </c>
       <c r="C17" s="6" t="s">
@@ -2340,11 +2344,11 @@
         <v>-2.78</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" ht="15.75" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="6" t="s">
         <v>55</v>
       </c>
       <c r="C18" s="6"/>
@@ -2379,11 +2383,11 @@
         <v>-2.69</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" ht="15.75" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="6" t="s">
         <v>57</v>
       </c>
       <c r="C19" s="6" t="s">
@@ -2420,11 +2424,11 @@
         <v>-1.77</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" ht="12.5">
       <c r="A20" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="6" t="s">
         <v>59</v>
       </c>
       <c r="C20" s="6" t="s">
@@ -2461,11 +2465,11 @@
         <v>-1.64</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" ht="12.5">
       <c r="A21" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="6" t="s">
         <v>62</v>
       </c>
       <c r="C21" s="6" t="s">
@@ -2502,11 +2506,11 @@
         <v>-2.74</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" ht="12.5">
       <c r="A22" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="6" t="s">
         <v>65</v>
       </c>
       <c r="C22" s="6" t="s">
@@ -2543,11 +2547,11 @@
         <v>-2.5299999999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" ht="12.5">
       <c r="A23" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="6" t="s">
         <v>68</v>
       </c>
       <c r="C23" s="6" t="s">
@@ -2584,11 +2588,11 @@
         <v>-3.35</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" ht="12.5">
       <c r="A24" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="6" t="s">
         <v>71</v>
       </c>
       <c r="C24" s="6" t="s">
@@ -2625,11 +2629,11 @@
         <v>-1.56</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" ht="12.5">
       <c r="A25" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="6" t="s">
         <v>74</v>
       </c>
       <c r="C25" s="6" t="s">
@@ -2666,11 +2670,11 @@
         <v>-2.37</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" ht="12.5">
       <c r="A26" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B26" s="21" t="s">
+      <c r="B26" s="6" t="s">
         <v>77</v>
       </c>
       <c r="C26" s="6" t="s">
@@ -2707,11 +2711,11 @@
         <v>-2.4500000000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" ht="12.5">
       <c r="A27" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B27" s="21" t="s">
+      <c r="B27" s="6" t="s">
         <v>80</v>
       </c>
       <c r="C27" s="6" t="s">
@@ -2748,11 +2752,11 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" ht="12.5">
       <c r="A28" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B28" s="21" t="s">
+      <c r="B28" s="6" t="s">
         <v>83</v>
       </c>
       <c r="C28" s="6" t="s">
@@ -2789,11 +2793,11 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" ht="12.5">
       <c r="A29" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B29" s="21" t="s">
+      <c r="B29" s="6" t="s">
         <v>86</v>
       </c>
       <c r="C29" s="6" t="s">
@@ -2830,11 +2834,11 @@
         <v>-1.89</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" ht="12.5">
       <c r="A30" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B30" s="21" t="s">
+      <c r="B30" s="6" t="s">
         <v>89</v>
       </c>
       <c r="C30" s="6" t="s">
@@ -2871,11 +2875,11 @@
         <v>-2.02</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" ht="12.5">
       <c r="A31" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B31" s="21" t="s">
+      <c r="B31" s="6" t="s">
         <v>92</v>
       </c>
       <c r="C31" s="6" t="s">
@@ -2912,11 +2916,11 @@
         <v>-2.17</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" ht="12.5">
       <c r="A32" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B32" s="21" t="s">
+      <c r="B32" s="6" t="s">
         <v>95</v>
       </c>
       <c r="C32" s="6" t="s">
@@ -2953,11 +2957,11 @@
         <v>-2.35</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" ht="12.5">
       <c r="A33" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B33" s="21" t="s">
+      <c r="B33" s="6" t="s">
         <v>98</v>
       </c>
       <c r="C33" s="6" t="s">
@@ -2994,11 +2998,11 @@
         <v>-0.78</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" ht="12.5">
       <c r="A34" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B34" s="21" t="s">
+      <c r="B34" s="6" t="s">
         <v>101</v>
       </c>
       <c r="C34" s="6" t="s">
@@ -3035,11 +3039,11 @@
         <v>-2.82</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" ht="12.5">
       <c r="A35" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B35" s="21" t="s">
+      <c r="B35" s="6" t="s">
         <v>101</v>
       </c>
       <c r="C35" s="6" t="s">
@@ -3076,11 +3080,11 @@
         <v>-2.82</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" ht="12.5">
       <c r="A36" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B36" s="21" t="s">
+      <c r="B36" s="6" t="s">
         <v>105</v>
       </c>
       <c r="C36" s="6" t="s">
@@ -3117,11 +3121,11 @@
         <v>-3.93</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" ht="12.5">
       <c r="A37" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B37" s="21" t="s">
+      <c r="B37" s="6" t="s">
         <v>105</v>
       </c>
       <c r="C37" s="6" t="s">
@@ -3158,11 +3162,11 @@
         <v>-3.93</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" ht="12.5">
       <c r="A38" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B38" s="21" t="s">
+      <c r="B38" s="6" t="s">
         <v>109</v>
       </c>
       <c r="C38" s="6" t="s">
@@ -3199,11 +3203,11 @@
         <v>-1.71</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:13" ht="12.5">
       <c r="A39" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B39" s="21" t="s">
+      <c r="B39" s="6" t="s">
         <v>112</v>
       </c>
       <c r="C39" s="6" t="s">
@@ -3240,11 +3244,11 @@
         <v>-3.02</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" ht="12.5">
       <c r="A40" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B40" s="21" t="s">
+      <c r="B40" s="6" t="s">
         <v>112</v>
       </c>
       <c r="C40" s="6" t="s">
@@ -3281,11 +3285,11 @@
         <v>-3.02</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" ht="12.5">
       <c r="A41" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B41" s="21" t="s">
+      <c r="B41" s="6" t="s">
         <v>115</v>
       </c>
       <c r="C41" s="6" t="s">
@@ -3322,11 +3326,11 @@
         <v>-2.1</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" ht="12.5">
       <c r="A42" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B42" s="21" t="s">
+      <c r="B42" s="6" t="s">
         <v>118</v>
       </c>
       <c r="C42" s="6" t="s">
@@ -3363,11 +3367,11 @@
         <v>-2.96</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" ht="12.5">
       <c r="A43" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B43" s="21" t="s">
+      <c r="B43" s="6" t="s">
         <v>121</v>
       </c>
       <c r="C43" s="6" t="s">
@@ -3404,11 +3408,11 @@
         <v>-1.97</v>
       </c>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:13" ht="12.5">
       <c r="A44" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B44" s="21" t="s">
+      <c r="B44" s="6" t="s">
         <v>121</v>
       </c>
       <c r="C44" s="6" t="s">
@@ -3445,11 +3449,11 @@
         <v>-1.97</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" ht="12.5">
       <c r="A45" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B45" s="21" t="s">
+      <c r="B45" s="6" t="s">
         <v>125</v>
       </c>
       <c r="C45" s="6" t="s">
@@ -3486,11 +3490,11 @@
         <v>-1.58</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" ht="12.5">
       <c r="A46" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B46" s="21" t="s">
+      <c r="B46" s="6" t="s">
         <v>127</v>
       </c>
       <c r="C46" s="6" t="s">
@@ -3527,11 +3531,11 @@
         <v>-1.34</v>
       </c>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:13" ht="12.5">
       <c r="A47" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B47" s="21" t="s">
+      <c r="B47" s="6" t="s">
         <v>130</v>
       </c>
       <c r="C47" s="6" t="s">
@@ -3568,11 +3572,11 @@
         <v>-2.3199999999999998</v>
       </c>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:13" ht="12.5">
       <c r="A48" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B48" s="21" t="s">
+      <c r="B48" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C48" s="6" t="s">
@@ -3609,11 +3613,11 @@
         <v>-2.66</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:13" ht="12.5">
       <c r="A49" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B49" s="21" t="s">
+      <c r="B49" s="6" t="s">
         <v>136</v>
       </c>
       <c r="C49" s="6" t="s">
@@ -3650,11 +3654,11 @@
         <v>-2.02</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:13" ht="12.5">
       <c r="A50" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B50" s="21" t="s">
+      <c r="B50" s="6" t="s">
         <v>139</v>
       </c>
       <c r="C50" s="6" t="s">
@@ -3691,11 +3695,11 @@
         <v>-0.98</v>
       </c>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:13" ht="12.5">
       <c r="A51" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B51" s="21" t="s">
+      <c r="B51" s="6" t="s">
         <v>142</v>
       </c>
       <c r="C51" s="6" t="s">
@@ -3732,11 +3736,11 @@
         <v>-2.5499999999999998</v>
       </c>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:13" ht="12.5">
       <c r="A52" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B52" s="21" t="s">
+      <c r="B52" s="6" t="s">
         <v>144</v>
       </c>
       <c r="C52" s="6" t="s">
@@ -3773,11 +3777,11 @@
         <v>-2.5499999999999998</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:13" ht="12.5">
       <c r="A53" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B53" s="21" t="s">
+      <c r="B53" s="6" t="s">
         <v>146</v>
       </c>
       <c r="C53" s="6" t="s">
@@ -3814,11 +3818,11 @@
         <v>-2.72</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:13" ht="12.5">
       <c r="A54" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B54" s="21" t="s">
+      <c r="B54" s="6" t="s">
         <v>149</v>
       </c>
       <c r="C54" s="6" t="s">
@@ -3855,11 +3859,11 @@
         <v>-3.31</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:13" ht="12.5">
       <c r="A55" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B55" s="21" t="s">
+      <c r="B55" s="6" t="s">
         <v>153</v>
       </c>
       <c r="C55" s="6" t="s">
@@ -3896,11 +3900,11 @@
         <v>-1.95</v>
       </c>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:13" ht="12.5">
       <c r="A56" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B56" s="21" t="s">
+      <c r="B56" s="6" t="s">
         <v>156</v>
       </c>
       <c r="C56" s="6" t="s">
@@ -3937,11 +3941,11 @@
         <v>-1.94</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:13" ht="12.5">
       <c r="A57" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B57" s="21" t="s">
+      <c r="B57" s="6" t="s">
         <v>139</v>
       </c>
       <c r="C57" s="6" t="s">
@@ -3978,11 +3982,11 @@
         <v>-0.98</v>
       </c>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:13" ht="12.5">
       <c r="A58" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B58" s="21" t="s">
+      <c r="B58" s="6" t="s">
         <v>160</v>
       </c>
       <c r="C58" s="6" t="s">
@@ -4019,11 +4023,11 @@
         <v>-1.07</v>
       </c>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:13" ht="12.5">
       <c r="A59" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B59" s="21" t="s">
+      <c r="B59" s="6" t="s">
         <v>163</v>
       </c>
       <c r="C59" s="6" t="s">
@@ -4060,11 +4064,11 @@
         <v>-1.1499999999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:13" ht="12.5">
       <c r="A60" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B60" s="21" t="s">
+      <c r="B60" s="6" t="s">
         <v>166</v>
       </c>
       <c r="C60" s="6" t="s">
@@ -4101,11 +4105,11 @@
         <v>-1.47</v>
       </c>
     </row>
-    <row r="61" spans="1:13">
+    <row r="61" spans="1:13" ht="12.5">
       <c r="A61" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B61" s="21" t="s">
+      <c r="B61" s="6" t="s">
         <v>168</v>
       </c>
       <c r="C61" s="6" t="s">
@@ -4142,11 +4146,11 @@
         <v>-2.0099999999999998</v>
       </c>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:13" ht="12.5">
       <c r="A62" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B62" s="21" t="s">
+      <c r="B62" s="6" t="s">
         <v>170</v>
       </c>
       <c r="C62" s="6" t="s">
@@ -4183,11 +4187,11 @@
         <v>-0.87</v>
       </c>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:13" ht="12.5">
       <c r="A63" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B63" s="21" t="s">
+      <c r="B63" s="6" t="s">
         <v>173</v>
       </c>
       <c r="C63" s="6" t="s">
@@ -4224,11 +4228,11 @@
         <v>-1.69</v>
       </c>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:13" ht="12.5">
       <c r="A64" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B64" s="21" t="s">
+      <c r="B64" s="6" t="s">
         <v>176</v>
       </c>
       <c r="C64" s="6" t="s">
@@ -4265,11 +4269,11 @@
         <v>-3.66</v>
       </c>
     </row>
-    <row r="65" spans="1:26">
+    <row r="65" spans="1:26" ht="12.5">
       <c r="A65" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B65" s="21" t="s">
+      <c r="B65" s="6" t="s">
         <v>179</v>
       </c>
       <c r="C65" s="6" t="s">
@@ -4306,11 +4310,11 @@
         <v>-2.79</v>
       </c>
     </row>
-    <row r="66" spans="1:26">
+    <row r="66" spans="1:26" ht="12.5">
       <c r="A66" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B66" s="21" t="s">
+      <c r="B66" s="6" t="s">
         <v>181</v>
       </c>
       <c r="C66" s="6" t="s">
@@ -4347,11 +4351,11 @@
         <v>-2.76</v>
       </c>
     </row>
-    <row r="67" spans="1:26">
+    <row r="67" spans="1:26" ht="12.5">
       <c r="A67" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B67" s="21" t="s">
+      <c r="B67" s="6" t="s">
         <v>184</v>
       </c>
       <c r="C67" s="6" t="s">
@@ -4388,11 +4392,11 @@
         <v>-1.51</v>
       </c>
     </row>
-    <row r="68" spans="1:26">
+    <row r="68" spans="1:26" ht="12.5">
       <c r="A68" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B68" s="21" t="s">
+      <c r="B68" s="6" t="s">
         <v>186</v>
       </c>
       <c r="C68" s="6" t="s">
@@ -4429,11 +4433,11 @@
         <v>-1.56</v>
       </c>
     </row>
-    <row r="69" spans="1:26">
+    <row r="69" spans="1:26" ht="12.5">
       <c r="A69" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B69" s="21" t="s">
+      <c r="B69" s="6" t="s">
         <v>186</v>
       </c>
       <c r="C69" s="6" t="s">
@@ -4470,11 +4474,11 @@
         <v>-1.56</v>
       </c>
     </row>
-    <row r="70" spans="1:26">
+    <row r="70" spans="1:26" ht="12.5">
       <c r="A70" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="B70" s="21" t="s">
+      <c r="B70" s="6" t="s">
         <v>190</v>
       </c>
       <c r="C70" s="6" t="s">
@@ -4511,11 +4515,11 @@
         <v>-2.5299999999999998</v>
       </c>
     </row>
-    <row r="71" spans="1:26">
+    <row r="71" spans="1:26" ht="12.5">
       <c r="A71" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B71" s="21" t="s">
+      <c r="B71" s="6" t="s">
         <v>193</v>
       </c>
       <c r="C71" s="6" t="s">
@@ -4552,11 +4556,11 @@
         <v>-2.2200000000000002</v>
       </c>
     </row>
-    <row r="72" spans="1:26">
+    <row r="72" spans="1:26" ht="12.5">
       <c r="A72" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B72" s="21" t="s">
+      <c r="B72" s="6" t="s">
         <v>196</v>
       </c>
       <c r="C72" s="6" t="s">
@@ -4593,11 +4597,11 @@
         <v>-1.47</v>
       </c>
     </row>
-    <row r="73" spans="1:26">
+    <row r="73" spans="1:26" ht="12.5">
       <c r="A73" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="B73" s="22" t="s">
+      <c r="B73" s="11" t="s">
         <v>198</v>
       </c>
       <c r="C73" s="11" t="s">
@@ -4647,11 +4651,11 @@
       <c r="Y73" s="10"/>
       <c r="Z73" s="10"/>
     </row>
-    <row r="74" spans="1:26">
+    <row r="74" spans="1:26" ht="12.5">
       <c r="A74" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B74" s="21" t="s">
+      <c r="B74" s="6" t="s">
         <v>201</v>
       </c>
       <c r="C74" s="6" t="s">
@@ -4688,11 +4692,11 @@
         <v>-1.63</v>
       </c>
     </row>
-    <row r="75" spans="1:26">
+    <row r="75" spans="1:26" ht="12.5">
       <c r="A75" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B75" s="21" t="s">
+      <c r="B75" s="6" t="s">
         <v>204</v>
       </c>
       <c r="C75" s="6" t="s">
@@ -4729,11 +4733,11 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="76" spans="1:26">
+    <row r="76" spans="1:26" ht="12.5">
       <c r="A76" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B76" s="21" t="s">
+      <c r="B76" s="6" t="s">
         <v>207</v>
       </c>
       <c r="C76" s="6" t="s">
@@ -4770,11 +4774,11 @@
         <v>-0.44</v>
       </c>
     </row>
-    <row r="77" spans="1:26">
+    <row r="77" spans="1:26" ht="12.5">
       <c r="A77" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B77" s="21" t="s">
+      <c r="B77" s="6" t="s">
         <v>210</v>
       </c>
       <c r="C77" s="6" t="s">
@@ -4811,26 +4815,3244 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="78" spans="1:26">
-      <c r="D78" s="9"/>
-    </row>
-    <row r="79" spans="1:26">
-      <c r="D79" s="9"/>
-    </row>
-    <row r="80" spans="1:26">
-      <c r="D80" s="9"/>
-    </row>
-    <row r="81" spans="4:4">
-      <c r="D81" s="9"/>
-    </row>
-    <row r="82" spans="4:4">
-      <c r="D82" s="9"/>
-    </row>
-    <row r="83" spans="4:4">
-      <c r="D83" s="9"/>
-    </row>
-    <row r="84" spans="4:4">
-      <c r="D84" s="9"/>
+    <row r="78" spans="1:26" ht="25">
+      <c r="A78" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C78" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="D78" s="15">
+        <v>332.31</v>
+      </c>
+      <c r="E78" s="1">
+        <v>8</v>
+      </c>
+      <c r="F78" s="1">
+        <v>7</v>
+      </c>
+      <c r="G78" s="1">
+        <v>2</v>
+      </c>
+      <c r="H78" s="15">
+        <v>-0.01</v>
+      </c>
+      <c r="I78" s="15">
+        <v>-3.19</v>
+      </c>
+      <c r="J78" s="15">
+        <v>-3.79</v>
+      </c>
+      <c r="K78" s="15">
+        <v>-3.18</v>
+      </c>
+      <c r="L78" s="15">
+        <v>-3.01</v>
+      </c>
+      <c r="M78" s="15">
+        <v>-2.63</v>
+      </c>
+    </row>
+    <row r="79" spans="1:26" ht="12.5">
+      <c r="A79" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C79" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="D79" s="15">
+        <v>426.38</v>
+      </c>
+      <c r="E79" s="1">
+        <v>12</v>
+      </c>
+      <c r="F79" s="1">
+        <v>7</v>
+      </c>
+      <c r="G79" s="1">
+        <v>2</v>
+      </c>
+      <c r="H79" s="15">
+        <v>0.74</v>
+      </c>
+      <c r="I79" s="15">
+        <v>-0.94</v>
+      </c>
+      <c r="J79" s="15">
+        <v>-1.71</v>
+      </c>
+      <c r="K79" s="15">
+        <v>-2.57</v>
+      </c>
+      <c r="L79" s="15">
+        <v>-2.36</v>
+      </c>
+      <c r="M79" s="15">
+        <v>-1.37</v>
+      </c>
+    </row>
+    <row r="80" spans="1:26" ht="12.5">
+      <c r="A80" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C80" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="D80" s="15">
+        <v>393.39</v>
+      </c>
+      <c r="E80" s="1">
+        <v>10</v>
+      </c>
+      <c r="F80" s="1">
+        <v>7</v>
+      </c>
+      <c r="G80" s="1">
+        <v>2</v>
+      </c>
+      <c r="H80" s="1">
+        <v>0.69</v>
+      </c>
+      <c r="I80" s="1">
+        <v>-3.16</v>
+      </c>
+      <c r="J80" s="1">
+        <v>-2.74</v>
+      </c>
+      <c r="K80" s="1">
+        <v>-2.86</v>
+      </c>
+      <c r="L80" s="1">
+        <v>-1.1399999999999999</v>
+      </c>
+      <c r="M80" s="1">
+        <v>-1.84</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" ht="12.5">
+      <c r="A81" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="C81" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="D81" s="1">
+        <v>393.43</v>
+      </c>
+      <c r="E81" s="1">
+        <v>9</v>
+      </c>
+      <c r="F81" s="1">
+        <v>7</v>
+      </c>
+      <c r="G81" s="1">
+        <v>1</v>
+      </c>
+      <c r="H81" s="1">
+        <v>1.63</v>
+      </c>
+      <c r="I81" s="1">
+        <v>-0.47</v>
+      </c>
+      <c r="J81" s="1">
+        <v>-1.53</v>
+      </c>
+      <c r="K81" s="1">
+        <v>-1.76</v>
+      </c>
+      <c r="L81" s="1">
+        <v>-0.31</v>
+      </c>
+      <c r="M81" s="1">
+        <v>-0.49</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" ht="12.5">
+      <c r="A82" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="C82" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="D82" s="1">
+        <v>339.34</v>
+      </c>
+      <c r="E82" s="1">
+        <v>7</v>
+      </c>
+      <c r="F82" s="1">
+        <v>4</v>
+      </c>
+      <c r="G82" s="1">
+        <v>0</v>
+      </c>
+      <c r="H82" s="1">
+        <v>1.83</v>
+      </c>
+      <c r="I82" s="1">
+        <v>-0.2</v>
+      </c>
+      <c r="J82" s="1">
+        <v>-0.52</v>
+      </c>
+      <c r="K82" s="1">
+        <v>-0.73</v>
+      </c>
+      <c r="L82" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="M82" s="1">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" ht="12.5">
+      <c r="A83" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C83" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="D83" s="1">
+        <v>286.37</v>
+      </c>
+      <c r="E83" s="1">
+        <v>5</v>
+      </c>
+      <c r="F83" s="1">
+        <v>3</v>
+      </c>
+      <c r="G83" s="1">
+        <v>0</v>
+      </c>
+      <c r="H83" s="15">
+        <v>1.97</v>
+      </c>
+      <c r="I83" s="15">
+        <v>-1.75</v>
+      </c>
+      <c r="J83" s="15">
+        <v>0.89</v>
+      </c>
+      <c r="K83" s="15">
+        <v>0.22</v>
+      </c>
+      <c r="L83" s="15">
+        <v>0.38</v>
+      </c>
+      <c r="M83" s="15">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" ht="12.5">
+      <c r="A84" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="C84" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D84" s="15">
+        <v>323.3</v>
+      </c>
+      <c r="E84" s="1">
+        <v>9</v>
+      </c>
+      <c r="F84" s="1">
+        <v>7</v>
+      </c>
+      <c r="G84" s="1">
+        <v>1</v>
+      </c>
+      <c r="H84" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="I84" s="1">
+        <v>-2.99</v>
+      </c>
+      <c r="J84" s="1">
+        <v>-3.48</v>
+      </c>
+      <c r="K84" s="1">
+        <v>-3.04</v>
+      </c>
+      <c r="L84" s="1">
+        <v>-2.2999999999999998</v>
+      </c>
+      <c r="M84" s="1">
+        <v>-2.34</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A85" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C85" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="D85" s="1">
+        <v>351.35</v>
+      </c>
+      <c r="E85" s="1">
+        <v>9</v>
+      </c>
+      <c r="F85" s="1">
+        <v>7</v>
+      </c>
+      <c r="G85" s="1">
+        <v>1</v>
+      </c>
+      <c r="H85" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="I85" s="1">
+        <v>-2.1</v>
+      </c>
+      <c r="J85" s="1">
+        <v>-2.7</v>
+      </c>
+      <c r="K85" s="1">
+        <v>-2.5099999999999998</v>
+      </c>
+      <c r="L85" s="1">
+        <v>-1.52</v>
+      </c>
+      <c r="M85" s="1">
+        <v>-1.71</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A86" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="C86" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="D86" s="15">
+        <v>365.33</v>
+      </c>
+      <c r="E86" s="1">
+        <v>10</v>
+      </c>
+      <c r="F86" s="1">
+        <v>7</v>
+      </c>
+      <c r="G86" s="1">
+        <v>2</v>
+      </c>
+      <c r="H86" s="15">
+        <v>-0.56000000000000005</v>
+      </c>
+      <c r="I86" s="15">
+        <v>-3.88</v>
+      </c>
+      <c r="J86" s="1">
+        <v>-3.52</v>
+      </c>
+      <c r="K86" s="1">
+        <v>-3.37</v>
+      </c>
+      <c r="L86" s="1">
+        <v>-1.94</v>
+      </c>
+      <c r="M86" s="1">
+        <v>-2.65</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A87" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C87" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="D87" s="15">
+        <v>365.38</v>
+      </c>
+      <c r="E87" s="1">
+        <v>9</v>
+      </c>
+      <c r="F87" s="1">
+        <v>7</v>
+      </c>
+      <c r="G87" s="1">
+        <v>1</v>
+      </c>
+      <c r="H87" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="I87" s="1">
+        <v>-1.55</v>
+      </c>
+      <c r="J87" s="1">
+        <v>-2.31</v>
+      </c>
+      <c r="K87" s="1">
+        <v>-2.25</v>
+      </c>
+      <c r="L87" s="1">
+        <v>-1.1200000000000001</v>
+      </c>
+      <c r="M87" s="1">
+        <v>-1.31</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A88" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="C88" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="D88" s="15">
+        <v>325.27</v>
+      </c>
+      <c r="E88" s="1">
+        <v>10</v>
+      </c>
+      <c r="F88" s="1">
+        <v>8</v>
+      </c>
+      <c r="G88" s="1">
+        <v>2</v>
+      </c>
+      <c r="H88" s="1">
+        <v>-0.38</v>
+      </c>
+      <c r="I88" s="1">
+        <v>-4.12</v>
+      </c>
+      <c r="J88" s="1">
+        <v>-4.9000000000000004</v>
+      </c>
+      <c r="K88" s="1">
+        <v>-4.09</v>
+      </c>
+      <c r="L88" s="1">
+        <v>-3.25</v>
+      </c>
+      <c r="M88" s="1">
+        <v>-3.35</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A89" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="C89" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="D89" s="1">
+        <v>324.27999999999997</v>
+      </c>
+      <c r="E89" s="1">
+        <v>9</v>
+      </c>
+      <c r="F89" s="1">
+        <v>8</v>
+      </c>
+      <c r="G89" s="1">
+        <v>2</v>
+      </c>
+      <c r="H89" s="1">
+        <v>-0.08</v>
+      </c>
+      <c r="I89" s="1">
+        <v>-4.7699999999999996</v>
+      </c>
+      <c r="J89" s="1">
+        <v>-5.5</v>
+      </c>
+      <c r="K89" s="1">
+        <v>-4.49</v>
+      </c>
+      <c r="L89" s="1">
+        <v>-3.49</v>
+      </c>
+      <c r="M89" s="1">
+        <v>-3.67</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A90" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="C90" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D90" s="15">
+        <v>323.3</v>
+      </c>
+      <c r="E90" s="1">
+        <v>9</v>
+      </c>
+      <c r="F90" s="1">
+        <v>6</v>
+      </c>
+      <c r="G90" s="1">
+        <v>1</v>
+      </c>
+      <c r="H90" s="1">
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="I90" s="1">
+        <v>-3.14</v>
+      </c>
+      <c r="J90" s="1">
+        <v>-3.78</v>
+      </c>
+      <c r="K90" s="1">
+        <v>-3.04</v>
+      </c>
+      <c r="L90" s="1">
+        <v>-2.15</v>
+      </c>
+      <c r="M90" s="1">
+        <v>-2.48</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A91" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="C91" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D91" s="1">
+        <v>337.32</v>
+      </c>
+      <c r="E91" s="1">
+        <v>9</v>
+      </c>
+      <c r="F91" s="1">
+        <v>6</v>
+      </c>
+      <c r="G91" s="1">
+        <v>1</v>
+      </c>
+      <c r="H91" s="1">
+        <v>0.52</v>
+      </c>
+      <c r="I91" s="1">
+        <v>-2.77</v>
+      </c>
+      <c r="J91" s="1">
+        <v>-3.39</v>
+      </c>
+      <c r="K91" s="1">
+        <v>-2.77</v>
+      </c>
+      <c r="L91" s="1">
+        <v>-1.77</v>
+      </c>
+      <c r="M91" s="1">
+        <v>-2.04</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A92" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="C92" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="D92" s="1">
+        <v>295.24</v>
+      </c>
+      <c r="E92" s="1">
+        <v>9</v>
+      </c>
+      <c r="F92" s="1">
+        <v>7</v>
+      </c>
+      <c r="G92" s="1">
+        <v>1</v>
+      </c>
+      <c r="H92" s="1">
+        <v>-0.46</v>
+      </c>
+      <c r="I92" s="1">
+        <v>-3.45</v>
+      </c>
+      <c r="J92" s="1">
+        <v>-4.26</v>
+      </c>
+      <c r="K92" s="1">
+        <v>-3.21</v>
+      </c>
+      <c r="L92" s="1">
+        <v>-2.9</v>
+      </c>
+      <c r="M92" s="1">
+        <v>-2.86</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A93" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="C93" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D93" s="1">
+        <v>323.3</v>
+      </c>
+      <c r="E93" s="1">
+        <v>9</v>
+      </c>
+      <c r="F93" s="1">
+        <v>6</v>
+      </c>
+      <c r="G93" s="1">
+        <v>1</v>
+      </c>
+      <c r="H93" s="1">
+        <v>0</v>
+      </c>
+      <c r="I93" s="1">
+        <v>-2.93</v>
+      </c>
+      <c r="J93" s="1">
+        <v>-3.22</v>
+      </c>
+      <c r="K93" s="1">
+        <v>-3.04</v>
+      </c>
+      <c r="L93" s="1">
+        <v>-2.15</v>
+      </c>
+      <c r="M93" s="1">
+        <v>-2.27</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A94" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="C94" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="D94" s="15">
+        <v>339.36</v>
+      </c>
+      <c r="E94" s="1">
+        <v>8</v>
+      </c>
+      <c r="F94" s="1">
+        <v>6</v>
+      </c>
+      <c r="G94" s="1">
+        <v>1</v>
+      </c>
+      <c r="H94" s="15">
+        <v>0.93</v>
+      </c>
+      <c r="I94" s="15">
+        <v>-2.33</v>
+      </c>
+      <c r="J94" s="15">
+        <v>-2.42</v>
+      </c>
+      <c r="K94" s="15">
+        <v>-2.68</v>
+      </c>
+      <c r="L94" s="1">
+        <v>-0.7</v>
+      </c>
+      <c r="M94" s="15">
+        <v>-1.44</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A95" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="C95" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D95" s="15">
+        <v>337.32</v>
+      </c>
+      <c r="E95" s="1">
+        <v>9</v>
+      </c>
+      <c r="F95" s="1">
+        <v>6</v>
+      </c>
+      <c r="G95" s="1">
+        <v>1</v>
+      </c>
+      <c r="H95" s="1">
+        <v>0.86</v>
+      </c>
+      <c r="I95" s="1">
+        <v>-2.46</v>
+      </c>
+      <c r="J95" s="1">
+        <v>-2.83</v>
+      </c>
+      <c r="K95" s="1">
+        <v>-2.77</v>
+      </c>
+      <c r="L95" s="1">
+        <v>-1.77</v>
+      </c>
+      <c r="M95" s="1">
+        <v>-1.79</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A96" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C96" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="D96" s="1">
+        <v>399.39</v>
+      </c>
+      <c r="E96" s="1">
+        <v>9</v>
+      </c>
+      <c r="F96" s="1">
+        <v>6</v>
+      </c>
+      <c r="G96" s="1">
+        <v>1</v>
+      </c>
+      <c r="H96" s="1">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="I96" s="1">
+        <v>-1.43</v>
+      </c>
+      <c r="J96" s="1">
+        <v>-1.8</v>
+      </c>
+      <c r="K96" s="1">
+        <v>-1.8</v>
+      </c>
+      <c r="L96" s="1">
+        <v>-0.64</v>
+      </c>
+      <c r="M96" s="1">
+        <v>-0.91</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A97" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="C97" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="D97" s="15">
+        <v>324.27999999999997</v>
+      </c>
+      <c r="E97" s="1">
+        <v>10</v>
+      </c>
+      <c r="F97" s="1">
+        <v>8</v>
+      </c>
+      <c r="G97" s="1">
+        <v>2</v>
+      </c>
+      <c r="H97" s="1">
+        <v>-0.5</v>
+      </c>
+      <c r="I97" s="1">
+        <v>-6.65</v>
+      </c>
+      <c r="J97" s="1">
+        <v>-4.93</v>
+      </c>
+      <c r="K97" s="1">
+        <v>-4.09</v>
+      </c>
+      <c r="L97" s="1">
+        <v>-3.49</v>
+      </c>
+      <c r="M97" s="1">
+        <v>-3.93</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A98" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="C98" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="D98" s="15">
+        <v>325.27</v>
+      </c>
+      <c r="E98" s="1">
+        <v>10</v>
+      </c>
+      <c r="F98" s="1">
+        <v>8</v>
+      </c>
+      <c r="G98" s="1">
+        <v>2</v>
+      </c>
+      <c r="H98" s="1">
+        <v>-0.38</v>
+      </c>
+      <c r="I98" s="1">
+        <v>-4.12</v>
+      </c>
+      <c r="J98" s="1">
+        <v>-4.9000000000000004</v>
+      </c>
+      <c r="K98" s="1">
+        <v>-4.09</v>
+      </c>
+      <c r="L98" s="1">
+        <v>-3.25</v>
+      </c>
+      <c r="M98" s="1">
+        <v>-3.35</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A99" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="C99" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="D99" s="1">
+        <v>341.29</v>
+      </c>
+      <c r="E99" s="1">
+        <v>10</v>
+      </c>
+      <c r="F99" s="1">
+        <v>6</v>
+      </c>
+      <c r="G99" s="1">
+        <v>1</v>
+      </c>
+      <c r="H99" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="I99" s="1">
+        <v>-2.5499999999999998</v>
+      </c>
+      <c r="J99" s="1">
+        <v>-2.85</v>
+      </c>
+      <c r="K99" s="1">
+        <v>-2.91</v>
+      </c>
+      <c r="L99" s="1">
+        <v>-1.82</v>
+      </c>
+      <c r="M99" s="1">
+        <v>-1.93</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A100" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="C100" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="D100" s="15">
+        <v>377.27</v>
+      </c>
+      <c r="E100" s="1">
+        <v>12</v>
+      </c>
+      <c r="F100" s="1">
+        <v>6</v>
+      </c>
+      <c r="G100" s="1">
+        <v>1</v>
+      </c>
+      <c r="H100" s="15">
+        <v>0.81</v>
+      </c>
+      <c r="I100" s="15">
+        <v>-1.81</v>
+      </c>
+      <c r="J100" s="15">
+        <v>-1.41</v>
+      </c>
+      <c r="K100" s="15">
+        <v>-2.64</v>
+      </c>
+      <c r="L100" s="1">
+        <v>-1.48</v>
+      </c>
+      <c r="M100" s="1">
+        <v>-1.31</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A101" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="C101" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="D101" s="1">
+        <v>377.27</v>
+      </c>
+      <c r="E101" s="1">
+        <v>12</v>
+      </c>
+      <c r="F101" s="1">
+        <v>6</v>
+      </c>
+      <c r="G101" s="1">
+        <v>1</v>
+      </c>
+      <c r="H101" s="1">
+        <v>0.81</v>
+      </c>
+      <c r="I101" s="1">
+        <v>-1.81</v>
+      </c>
+      <c r="J101" s="1">
+        <v>-1.41</v>
+      </c>
+      <c r="K101" s="1">
+        <v>-2.64</v>
+      </c>
+      <c r="L101" s="1">
+        <v>-1.48</v>
+      </c>
+      <c r="M101" s="1">
+        <v>-1.31</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A102" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="C102" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="D102" s="1">
+        <v>343.71</v>
+      </c>
+      <c r="E102" s="1">
+        <v>9</v>
+      </c>
+      <c r="F102" s="1">
+        <v>7</v>
+      </c>
+      <c r="G102" s="1">
+        <v>1</v>
+      </c>
+      <c r="H102" s="1">
+        <v>-0.94</v>
+      </c>
+      <c r="I102" s="1">
+        <v>-2.84</v>
+      </c>
+      <c r="J102" s="1">
+        <v>-3.65</v>
+      </c>
+      <c r="K102" s="1">
+        <v>-3.04</v>
+      </c>
+      <c r="L102" s="1">
+        <v>-2.13</v>
+      </c>
+      <c r="M102" s="1">
+        <v>-2.52</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A103" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="C103" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="D103" s="15">
+        <v>388.17</v>
+      </c>
+      <c r="E103" s="1">
+        <v>9</v>
+      </c>
+      <c r="F103" s="1">
+        <v>7</v>
+      </c>
+      <c r="G103" s="1">
+        <v>1</v>
+      </c>
+      <c r="H103" s="1">
+        <v>-0.09</v>
+      </c>
+      <c r="I103" s="1">
+        <v>-2.67</v>
+      </c>
+      <c r="J103" s="1">
+        <v>-3.5</v>
+      </c>
+      <c r="K103" s="1">
+        <v>-2.91</v>
+      </c>
+      <c r="L103" s="1">
+        <v>-2.09</v>
+      </c>
+      <c r="M103" s="1">
+        <v>-2.25</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A104" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="C104" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D104" s="15">
+        <v>323.3</v>
+      </c>
+      <c r="E104" s="1">
+        <v>9</v>
+      </c>
+      <c r="F104" s="1">
+        <v>6</v>
+      </c>
+      <c r="G104" s="1">
+        <v>1</v>
+      </c>
+      <c r="H104" s="1">
+        <v>-0.47</v>
+      </c>
+      <c r="I104" s="1">
+        <v>-2.93</v>
+      </c>
+      <c r="J104" s="1">
+        <v>-3.22</v>
+      </c>
+      <c r="K104" s="1">
+        <v>-3.04</v>
+      </c>
+      <c r="L104" s="1">
+        <v>-2.15</v>
+      </c>
+      <c r="M104" s="1">
+        <v>-2.36</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A105" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="C105" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="D105" s="15">
+        <v>410.48</v>
+      </c>
+      <c r="E105" s="1">
+        <v>9</v>
+      </c>
+      <c r="F105" s="1">
+        <v>7</v>
+      </c>
+      <c r="G105" s="1">
+        <v>1</v>
+      </c>
+      <c r="H105" s="1">
+        <v>1.18</v>
+      </c>
+      <c r="I105" s="1">
+        <v>-4.74</v>
+      </c>
+      <c r="J105" s="1">
+        <v>-2.35</v>
+      </c>
+      <c r="K105" s="1">
+        <v>-2.41</v>
+      </c>
+      <c r="L105" s="1">
+        <v>-0.82</v>
+      </c>
+      <c r="M105" s="1">
+        <v>-1.83</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A106" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C106" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="D106" s="15">
+        <v>399.39</v>
+      </c>
+      <c r="E106" s="1">
+        <v>9</v>
+      </c>
+      <c r="F106" s="1">
+        <v>6</v>
+      </c>
+      <c r="G106" s="1">
+        <v>1</v>
+      </c>
+      <c r="H106" s="1">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="I106" s="1">
+        <v>-1.43</v>
+      </c>
+      <c r="J106" s="1">
+        <v>-1.8</v>
+      </c>
+      <c r="K106" s="1">
+        <v>-1.8</v>
+      </c>
+      <c r="L106" s="1">
+        <v>-0.64</v>
+      </c>
+      <c r="M106" s="1">
+        <v>-0.91</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A107" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="C107" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="D107" s="15">
+        <v>322.31</v>
+      </c>
+      <c r="E107" s="1">
+        <v>8</v>
+      </c>
+      <c r="F107" s="1">
+        <v>6</v>
+      </c>
+      <c r="G107" s="1">
+        <v>1</v>
+      </c>
+      <c r="H107" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="I107" s="1">
+        <v>-3.58</v>
+      </c>
+      <c r="J107" s="1">
+        <v>-3.82</v>
+      </c>
+      <c r="K107" s="1">
+        <v>-3.45</v>
+      </c>
+      <c r="L107" s="1">
+        <v>-2.39</v>
+      </c>
+      <c r="M107" s="1">
+        <v>-2.64</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A108" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="C108" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="D108" s="15">
+        <v>498.52</v>
+      </c>
+      <c r="E108" s="1">
+        <v>10</v>
+      </c>
+      <c r="F108" s="1">
+        <v>7</v>
+      </c>
+      <c r="G108" s="1">
+        <v>2</v>
+      </c>
+      <c r="H108" s="1">
+        <v>2.11</v>
+      </c>
+      <c r="I108" s="1">
+        <v>-1.47</v>
+      </c>
+      <c r="J108" s="1">
+        <v>-1.51</v>
+      </c>
+      <c r="K108" s="1">
+        <v>-1.87</v>
+      </c>
+      <c r="L108" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="M108" s="1">
+        <v>-0.51</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A109" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="C109" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D109" s="1">
+        <v>323.3</v>
+      </c>
+      <c r="E109" s="1">
+        <v>9</v>
+      </c>
+      <c r="F109" s="1">
+        <v>7</v>
+      </c>
+      <c r="G109" s="1">
+        <v>1</v>
+      </c>
+      <c r="H109" s="1">
+        <v>-0.64</v>
+      </c>
+      <c r="I109" s="1">
+        <v>-3.28</v>
+      </c>
+      <c r="J109" s="1">
+        <v>-3.48</v>
+      </c>
+      <c r="K109" s="1">
+        <v>-3.04</v>
+      </c>
+      <c r="L109" s="1">
+        <v>-2.19</v>
+      </c>
+      <c r="M109" s="1">
+        <v>-2.5299999999999998</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A110" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="C110" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="D110" s="15">
+        <v>325.27</v>
+      </c>
+      <c r="E110" s="1">
+        <v>10</v>
+      </c>
+      <c r="F110" s="1">
+        <v>8</v>
+      </c>
+      <c r="G110" s="1">
+        <v>2</v>
+      </c>
+      <c r="H110" s="1">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="I110" s="1">
+        <v>-3.89</v>
+      </c>
+      <c r="J110" s="1">
+        <v>-4.9000000000000004</v>
+      </c>
+      <c r="K110" s="1">
+        <v>-4.09</v>
+      </c>
+      <c r="L110" s="1">
+        <v>-3.53</v>
+      </c>
+      <c r="M110" s="1">
+        <v>-3.5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A111" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="C111" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D111" s="15">
+        <v>293.27</v>
+      </c>
+      <c r="E111" s="1">
+        <v>8</v>
+      </c>
+      <c r="F111" s="1">
+        <v>6</v>
+      </c>
+      <c r="G111" s="1">
+        <v>1</v>
+      </c>
+      <c r="H111" s="1">
+        <v>4</v>
+      </c>
+      <c r="I111" s="1">
+        <v>-2.7</v>
+      </c>
+      <c r="J111" s="1">
+        <v>-3.19</v>
+      </c>
+      <c r="K111" s="1">
+        <v>-2.96</v>
+      </c>
+      <c r="L111" s="1">
+        <v>-2.23</v>
+      </c>
+      <c r="M111" s="1">
+        <v>-2.21</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A112" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="C112" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D112" s="15">
+        <v>309.27</v>
+      </c>
+      <c r="E112" s="1">
+        <v>9</v>
+      </c>
+      <c r="F112" s="1">
+        <v>7</v>
+      </c>
+      <c r="G112" s="1">
+        <v>1</v>
+      </c>
+      <c r="H112" s="1">
+        <v>-0.34</v>
+      </c>
+      <c r="I112" s="1">
+        <v>-3.47</v>
+      </c>
+      <c r="J112" s="1">
+        <v>-3.87</v>
+      </c>
+      <c r="K112" s="1">
+        <v>-3.32</v>
+      </c>
+      <c r="L112" s="1">
+        <v>-2.68</v>
+      </c>
+      <c r="M112" s="1">
+        <v>-2.74</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A113" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="C113" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D113" s="15">
+        <v>293.27</v>
+      </c>
+      <c r="E113" s="1">
+        <v>8</v>
+      </c>
+      <c r="F113" s="1">
+        <v>6</v>
+      </c>
+      <c r="G113" s="1">
+        <v>1</v>
+      </c>
+      <c r="H113" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I113" s="1">
+        <v>-2.7</v>
+      </c>
+      <c r="J113" s="1">
+        <v>-3.19</v>
+      </c>
+      <c r="K113" s="1">
+        <v>-2.96</v>
+      </c>
+      <c r="L113" s="1">
+        <v>-2.23</v>
+      </c>
+      <c r="M113" s="1">
+        <v>-2.19</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A114" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="C114" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D114" s="15">
+        <v>292.29000000000002</v>
+      </c>
+      <c r="E114" s="1">
+        <v>8</v>
+      </c>
+      <c r="F114" s="1">
+        <v>6</v>
+      </c>
+      <c r="G114" s="1">
+        <v>1</v>
+      </c>
+      <c r="H114" s="1">
+        <v>-0.02</v>
+      </c>
+      <c r="I114" s="1">
+        <v>-5.24</v>
+      </c>
+      <c r="J114" s="1">
+        <v>-3.23</v>
+      </c>
+      <c r="K114" s="1">
+        <v>-2.96</v>
+      </c>
+      <c r="L114" s="1">
+        <v>-2.46</v>
+      </c>
+      <c r="M114" s="1">
+        <v>-2.78</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A115" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="C115" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="D115" s="15">
+        <v>318.27999999999997</v>
+      </c>
+      <c r="E115" s="1">
+        <v>10</v>
+      </c>
+      <c r="F115" s="1">
+        <v>5</v>
+      </c>
+      <c r="G115" s="1">
+        <v>1</v>
+      </c>
+      <c r="H115" s="1">
+        <v>0.77</v>
+      </c>
+      <c r="I115" s="1">
+        <v>-1.1399999999999999</v>
+      </c>
+      <c r="J115" s="1">
+        <v>-1.87</v>
+      </c>
+      <c r="K115" s="1">
+        <v>-3.06</v>
+      </c>
+      <c r="L115" s="1">
+        <v>-2.91</v>
+      </c>
+      <c r="M115" s="1">
+        <v>-1.64</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A116" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="C116" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D116" s="15">
+        <v>337.32</v>
+      </c>
+      <c r="E116" s="1">
+        <v>9</v>
+      </c>
+      <c r="F116" s="1">
+        <v>7</v>
+      </c>
+      <c r="G116" s="1">
+        <v>1</v>
+      </c>
+      <c r="H116" s="1">
+        <v>0.66</v>
+      </c>
+      <c r="I116" s="1">
+        <v>-2.64</v>
+      </c>
+      <c r="J116" s="1">
+        <v>-3.09</v>
+      </c>
+      <c r="K116" s="1">
+        <v>-2.77</v>
+      </c>
+      <c r="L116" s="1">
+        <v>-1.92</v>
+      </c>
+      <c r="M116" s="1">
+        <v>-1.95</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A117" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="C117" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="D117" s="15">
+        <v>350.28</v>
+      </c>
+      <c r="E117" s="1">
+        <v>12</v>
+      </c>
+      <c r="F117" s="1">
+        <v>7</v>
+      </c>
+      <c r="G117" s="1">
+        <v>2</v>
+      </c>
+      <c r="H117" s="1">
+        <v>-0.98</v>
+      </c>
+      <c r="I117" s="1">
+        <v>-2.36</v>
+      </c>
+      <c r="J117" s="1">
+        <v>-3.58</v>
+      </c>
+      <c r="K117" s="1">
+        <v>-4.1500000000000004</v>
+      </c>
+      <c r="L117" s="1">
+        <v>-3.92</v>
+      </c>
+      <c r="M117" s="1">
+        <v>-2.98</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A118" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="C118" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D118" s="15">
+        <v>309.27</v>
+      </c>
+      <c r="E118" s="1">
+        <v>9</v>
+      </c>
+      <c r="F118" s="1">
+        <v>7</v>
+      </c>
+      <c r="G118" s="1">
+        <v>1</v>
+      </c>
+      <c r="H118" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="I118" s="1">
+        <v>-3.47</v>
+      </c>
+      <c r="J118" s="1">
+        <v>-3.87</v>
+      </c>
+      <c r="K118" s="1">
+        <v>-3.32</v>
+      </c>
+      <c r="L118" s="1">
+        <v>-2.68</v>
+      </c>
+      <c r="M118" s="1">
+        <v>-2.63</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A119" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="C119" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="D119" s="15">
+        <v>308.29000000000002</v>
+      </c>
+      <c r="E119" s="1">
+        <v>8</v>
+      </c>
+      <c r="F119" s="1">
+        <v>7</v>
+      </c>
+      <c r="G119" s="1">
+        <v>1</v>
+      </c>
+      <c r="H119" s="1">
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="I119" s="1">
+        <v>-4.12</v>
+      </c>
+      <c r="J119" s="1">
+        <v>-4.47</v>
+      </c>
+      <c r="K119" s="1">
+        <v>-3.73</v>
+      </c>
+      <c r="L119" s="1">
+        <v>-2.92</v>
+      </c>
+      <c r="M119" s="1">
+        <v>-3.11</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A120" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="C120" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D120" s="15">
+        <v>323.3</v>
+      </c>
+      <c r="E120" s="1">
+        <v>9</v>
+      </c>
+      <c r="F120" s="1">
+        <v>6</v>
+      </c>
+      <c r="G120" s="1">
+        <v>1</v>
+      </c>
+      <c r="H120" s="1">
+        <v>0</v>
+      </c>
+      <c r="I120" s="1">
+        <v>-2.93</v>
+      </c>
+      <c r="J120" s="1">
+        <v>-3.22</v>
+      </c>
+      <c r="K120" s="1">
+        <v>-3.04</v>
+      </c>
+      <c r="L120" s="1">
+        <v>-2.15</v>
+      </c>
+      <c r="M120" s="1">
+        <v>-2.27</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A121" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="C121" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D121" s="15">
+        <v>337.32</v>
+      </c>
+      <c r="E121" s="1">
+        <v>9</v>
+      </c>
+      <c r="F121" s="1">
+        <v>5</v>
+      </c>
+      <c r="G121" s="1">
+        <v>0</v>
+      </c>
+      <c r="H121" s="1">
+        <v>1.86</v>
+      </c>
+      <c r="I121" s="1">
+        <v>-2.6</v>
+      </c>
+      <c r="J121" s="1">
+        <v>-3.13</v>
+      </c>
+      <c r="K121" s="1">
+        <v>-2.77</v>
+      </c>
+      <c r="L121" s="1">
+        <v>-1.62</v>
+      </c>
+      <c r="M121" s="1">
+        <v>-1.65</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A122" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="C122" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D122" s="15">
+        <v>323.3</v>
+      </c>
+      <c r="E122" s="1">
+        <v>9</v>
+      </c>
+      <c r="F122" s="1">
+        <v>6</v>
+      </c>
+      <c r="G122" s="1">
+        <v>1</v>
+      </c>
+      <c r="H122" s="1">
+        <v>0</v>
+      </c>
+      <c r="I122" s="1">
+        <v>-2.93</v>
+      </c>
+      <c r="J122" s="1">
+        <v>-3.22</v>
+      </c>
+      <c r="K122" s="1">
+        <v>-3.04</v>
+      </c>
+      <c r="L122" s="1">
+        <v>-2.15</v>
+      </c>
+      <c r="M122" s="1">
+        <v>-2.27</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A123" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="C123" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="D123" s="15">
+        <v>351.35</v>
+      </c>
+      <c r="E123" s="1">
+        <v>9</v>
+      </c>
+      <c r="F123" s="1">
+        <v>5</v>
+      </c>
+      <c r="G123" s="1">
+        <v>0</v>
+      </c>
+      <c r="H123" s="1">
+        <v>1.99</v>
+      </c>
+      <c r="I123" s="1">
+        <v>-2.2400000000000002</v>
+      </c>
+      <c r="J123" s="1">
+        <v>-2.74</v>
+      </c>
+      <c r="K123" s="1">
+        <v>-2.5099999999999998</v>
+      </c>
+      <c r="L123" s="1">
+        <v>-1.22</v>
+      </c>
+      <c r="M123" s="1">
+        <v>-1.35</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A124" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="C124" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="D124" s="15">
+        <v>282.24</v>
+      </c>
+      <c r="E124" s="1">
+        <v>9</v>
+      </c>
+      <c r="F124" s="1">
+        <v>6</v>
+      </c>
+      <c r="G124" s="1">
+        <v>1</v>
+      </c>
+      <c r="H124" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="I124" s="1">
+        <v>-2.93</v>
+      </c>
+      <c r="J124" s="1">
+        <v>-3.36</v>
+      </c>
+      <c r="K124" s="1">
+        <v>-3.15</v>
+      </c>
+      <c r="L124" s="1">
+        <v>-2.3199999999999998</v>
+      </c>
+      <c r="M124" s="1">
+        <v>-2.31</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A125" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="C125" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D125" s="15">
+        <v>307.3</v>
+      </c>
+      <c r="E125" s="1">
+        <v>8</v>
+      </c>
+      <c r="F125" s="1">
+        <v>5</v>
+      </c>
+      <c r="G125" s="1">
+        <v>0</v>
+      </c>
+      <c r="H125" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="I125" s="1">
+        <v>-1.88</v>
+      </c>
+      <c r="J125" s="1">
+        <v>-2.19</v>
+      </c>
+      <c r="K125" s="1">
+        <v>-2.27</v>
+      </c>
+      <c r="L125" s="1">
+        <v>-1.59</v>
+      </c>
+      <c r="M125" s="1">
+        <v>-1.4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A126" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="C126" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D126" s="15">
+        <v>307.3</v>
+      </c>
+      <c r="E126" s="1">
+        <v>8</v>
+      </c>
+      <c r="F126" s="1">
+        <v>5</v>
+      </c>
+      <c r="G126" s="1">
+        <v>0</v>
+      </c>
+      <c r="H126" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="I126" s="1">
+        <v>-1.88</v>
+      </c>
+      <c r="J126" s="1">
+        <v>-2.19</v>
+      </c>
+      <c r="K126" s="1">
+        <v>-2.27</v>
+      </c>
+      <c r="L126" s="1">
+        <v>-1.59</v>
+      </c>
+      <c r="M126" s="1">
+        <v>-1.4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A127" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="C127" s="15" t="s">
+        <v>329</v>
+      </c>
+      <c r="D127" s="15">
+        <v>348.31</v>
+      </c>
+      <c r="E127" s="1">
+        <v>11</v>
+      </c>
+      <c r="F127" s="1">
+        <v>5</v>
+      </c>
+      <c r="G127" s="1">
+        <v>1</v>
+      </c>
+      <c r="H127" s="1">
+        <v>1.06</v>
+      </c>
+      <c r="I127" s="1">
+        <v>-1.34</v>
+      </c>
+      <c r="J127" s="1">
+        <v>-1.9</v>
+      </c>
+      <c r="K127" s="1">
+        <v>-3.12</v>
+      </c>
+      <c r="L127" s="1">
+        <v>-2.84</v>
+      </c>
+      <c r="M127" s="1">
+        <v>-1.63</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A128" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="C128" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="D128" s="15">
+        <v>321.27999999999997</v>
+      </c>
+      <c r="E128" s="1">
+        <v>9</v>
+      </c>
+      <c r="F128" s="1">
+        <v>5</v>
+      </c>
+      <c r="G128" s="1">
+        <v>0</v>
+      </c>
+      <c r="H128" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="I128" s="1">
+        <v>-2.56</v>
+      </c>
+      <c r="J128" s="1">
+        <v>-3.01</v>
+      </c>
+      <c r="K128" s="1">
+        <v>-3.14</v>
+      </c>
+      <c r="L128" s="1">
+        <v>-1.83</v>
+      </c>
+      <c r="M128" s="1">
+        <v>-2.0699999999999998</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A129" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="C129" s="15" t="s">
+        <v>335</v>
+      </c>
+      <c r="D129" s="15">
+        <v>335.35</v>
+      </c>
+      <c r="E129" s="1">
+        <v>8</v>
+      </c>
+      <c r="F129" s="1">
+        <v>5</v>
+      </c>
+      <c r="G129" s="1">
+        <v>0</v>
+      </c>
+      <c r="H129" s="1">
+        <v>1.04</v>
+      </c>
+      <c r="I129" s="1">
+        <v>-1.1200000000000001</v>
+      </c>
+      <c r="J129" s="1">
+        <v>-1.55</v>
+      </c>
+      <c r="K129" s="1">
+        <v>-1.74</v>
+      </c>
+      <c r="L129" s="1">
+        <v>-0.95</v>
+      </c>
+      <c r="M129" s="1">
+        <v>-0.87</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A130" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="C130" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="D130" s="15">
+        <v>307.26</v>
+      </c>
+      <c r="E130" s="1">
+        <v>11</v>
+      </c>
+      <c r="F130" s="1">
+        <v>5</v>
+      </c>
+      <c r="G130" s="1">
+        <v>1</v>
+      </c>
+      <c r="H130" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="I130" s="1">
+        <v>-1.92</v>
+      </c>
+      <c r="J130" s="1">
+        <v>-2.04</v>
+      </c>
+      <c r="K130" s="1">
+        <v>-3.26</v>
+      </c>
+      <c r="L130" s="1">
+        <v>-3</v>
+      </c>
+      <c r="M130" s="1">
+        <v>-2.02</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A131" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="C131" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="D131" s="15">
+        <v>307.26</v>
+      </c>
+      <c r="E131" s="1">
+        <v>11</v>
+      </c>
+      <c r="F131" s="1">
+        <v>5</v>
+      </c>
+      <c r="G131" s="1">
+        <v>1</v>
+      </c>
+      <c r="H131" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="I131" s="1">
+        <v>-1.92</v>
+      </c>
+      <c r="J131" s="1">
+        <v>-2.04</v>
+      </c>
+      <c r="K131" s="1">
+        <v>-3.26</v>
+      </c>
+      <c r="L131" s="1">
+        <v>-3</v>
+      </c>
+      <c r="M131" s="1">
+        <v>-2.02</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A132" s="17" t="s">
+        <v>339</v>
+      </c>
+      <c r="B132" s="17" t="s">
+        <v>340</v>
+      </c>
+      <c r="C132" s="18" t="s">
+        <v>341</v>
+      </c>
+      <c r="D132" s="1">
+        <v>530.53</v>
+      </c>
+      <c r="E132" s="1">
+        <v>14</v>
+      </c>
+      <c r="F132" s="1">
+        <v>1</v>
+      </c>
+      <c r="G132" s="1">
+        <v>2</v>
+      </c>
+      <c r="H132" s="1">
+        <v>0</v>
+      </c>
+      <c r="I132" s="1">
+        <v>1.74</v>
+      </c>
+      <c r="J132" s="1">
+        <v>0.93</v>
+      </c>
+      <c r="K132" s="1">
+        <v>-0.74</v>
+      </c>
+      <c r="L132" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="M132" s="1">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A133" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="C133" s="15" t="s">
+        <v>344</v>
+      </c>
+      <c r="D133" s="15">
+        <v>455.42</v>
+      </c>
+      <c r="E133" s="1">
+        <v>13</v>
+      </c>
+      <c r="F133" s="1">
+        <v>1</v>
+      </c>
+      <c r="G133" s="1">
+        <v>1</v>
+      </c>
+      <c r="H133" s="1">
+        <v>2.59</v>
+      </c>
+      <c r="I133" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J133" s="1">
+        <v>-0.1</v>
+      </c>
+      <c r="K133" s="1">
+        <v>-2.12</v>
+      </c>
+      <c r="L133" s="1">
+        <v>-0.82</v>
+      </c>
+      <c r="M133" s="1">
+        <v>-0.06</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A134" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="C134" s="15" t="s">
+        <v>347</v>
+      </c>
+      <c r="D134" s="15">
+        <v>546.55999999999995</v>
+      </c>
+      <c r="E134" s="1">
+        <v>12</v>
+      </c>
+      <c r="F134" s="1">
+        <v>2</v>
+      </c>
+      <c r="G134" s="1">
+        <v>2</v>
+      </c>
+      <c r="H134" s="1">
+        <v>4.05</v>
+      </c>
+      <c r="I134" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="J134" s="1">
+        <v>-0.25</v>
+      </c>
+      <c r="K134" s="1">
+        <v>-0.72</v>
+      </c>
+      <c r="L134" s="1">
+        <v>1.06</v>
+      </c>
+      <c r="M134" s="1">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A135" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="D135" s="15">
+        <v>472.44</v>
+      </c>
+      <c r="E135" s="1">
+        <v>12</v>
+      </c>
+      <c r="F135" s="1">
+        <v>1</v>
+      </c>
+      <c r="G135" s="1">
+        <v>1</v>
+      </c>
+      <c r="H135" s="1">
+        <v>2.25</v>
+      </c>
+      <c r="I135" s="1">
+        <v>-0.88</v>
+      </c>
+      <c r="J135" s="1">
+        <v>-0.84</v>
+      </c>
+      <c r="K135" s="1">
+        <v>-1.65</v>
+      </c>
+      <c r="L135" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="M135" s="1">
+        <v>-0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A136" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="C136" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="D136" s="15">
+        <v>475.44</v>
+      </c>
+      <c r="E136" s="1">
+        <v>12</v>
+      </c>
+      <c r="F136" s="1">
+        <v>1</v>
+      </c>
+      <c r="G136" s="1">
+        <v>1</v>
+      </c>
+      <c r="H136" s="1">
+        <v>3.39</v>
+      </c>
+      <c r="I136" s="1">
+        <v>-0.63</v>
+      </c>
+      <c r="J136" s="1">
+        <v>-0.82</v>
+      </c>
+      <c r="K136" s="1">
+        <v>-0.84</v>
+      </c>
+      <c r="L136" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="M136" s="1">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A137" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="C137" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D137" s="15">
+        <v>323.3</v>
+      </c>
+      <c r="E137" s="1">
+        <v>9</v>
+      </c>
+      <c r="F137" s="1">
+        <v>6</v>
+      </c>
+      <c r="G137" s="1">
+        <v>1</v>
+      </c>
+      <c r="H137" s="1">
+        <v>-0.47</v>
+      </c>
+      <c r="I137" s="1">
+        <v>-2.93</v>
+      </c>
+      <c r="J137" s="1">
+        <v>-3.22</v>
+      </c>
+      <c r="K137" s="1">
+        <v>-3.04</v>
+      </c>
+      <c r="L137" s="1">
+        <v>-2.15</v>
+      </c>
+      <c r="M137" s="1">
+        <v>-2.36</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A138" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="C138" s="15" t="s">
+        <v>358</v>
+      </c>
+      <c r="D138" s="15">
+        <v>426.42</v>
+      </c>
+      <c r="E138" s="1">
+        <v>9</v>
+      </c>
+      <c r="F138" s="1">
+        <v>6</v>
+      </c>
+      <c r="G138" s="1">
+        <v>2</v>
+      </c>
+      <c r="H138" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="I138" s="1">
+        <v>-1.27</v>
+      </c>
+      <c r="J138" s="1">
+        <v>-1.78</v>
+      </c>
+      <c r="K138" s="1">
+        <v>-1.73</v>
+      </c>
+      <c r="L138" s="1">
+        <v>-0.85</v>
+      </c>
+      <c r="M138" s="1">
+        <v>-1.03</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A139" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="C139" s="15" t="s">
+        <v>361</v>
+      </c>
+      <c r="D139" s="15">
+        <v>364.35</v>
+      </c>
+      <c r="E139" s="1">
+        <v>9</v>
+      </c>
+      <c r="F139" s="1">
+        <v>6</v>
+      </c>
+      <c r="G139" s="1">
+        <v>2</v>
+      </c>
+      <c r="H139" s="1">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="I139" s="1">
+        <v>-2.93</v>
+      </c>
+      <c r="J139" s="1">
+        <v>-3.07</v>
+      </c>
+      <c r="K139" s="1">
+        <v>-2.96</v>
+      </c>
+      <c r="L139" s="1">
+        <v>-1.96</v>
+      </c>
+      <c r="M139" s="1">
+        <v>-2.0699999999999998</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A140" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="C140" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="D140" s="15">
+        <v>476.48</v>
+      </c>
+      <c r="E140" s="1">
+        <v>9</v>
+      </c>
+      <c r="F140" s="1">
+        <v>9</v>
+      </c>
+      <c r="G140" s="1">
+        <v>2</v>
+      </c>
+      <c r="H140" s="1">
+        <v>1.86</v>
+      </c>
+      <c r="I140" s="1">
+        <v>-0.02</v>
+      </c>
+      <c r="J140" s="1">
+        <v>-0.63</v>
+      </c>
+      <c r="K140" s="1">
+        <v>-1.04</v>
+      </c>
+      <c r="L140" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="M140" s="1">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A141" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="B141" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="C141" s="15" t="s">
+        <v>367</v>
+      </c>
+      <c r="D141" s="15">
+        <v>502.51</v>
+      </c>
+      <c r="E141" s="1">
+        <v>9</v>
+      </c>
+      <c r="F141" s="1">
+        <v>6</v>
+      </c>
+      <c r="G141" s="1">
+        <v>3</v>
+      </c>
+      <c r="H141" s="1">
+        <v>1.92</v>
+      </c>
+      <c r="I141" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="J141" s="1">
+        <v>-0.11</v>
+      </c>
+      <c r="K141" s="1">
+        <v>-0.66</v>
+      </c>
+      <c r="L141" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="M141" s="1">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A142" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="C142" s="15" t="s">
+        <v>370</v>
+      </c>
+      <c r="D142" s="15">
+        <v>516.54</v>
+      </c>
+      <c r="E142" s="1">
+        <v>9</v>
+      </c>
+      <c r="F142" s="1">
+        <v>6</v>
+      </c>
+      <c r="G142" s="1">
+        <v>3</v>
+      </c>
+      <c r="H142" s="1">
+        <v>1.86</v>
+      </c>
+      <c r="I142" s="1">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="J142" s="1">
+        <v>-0.18</v>
+      </c>
+      <c r="K142" s="1">
+        <v>-0.73</v>
+      </c>
+      <c r="L142" s="1">
+        <v>1.19</v>
+      </c>
+      <c r="M142" s="1">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A143" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B143" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="C143" s="15" t="s">
+        <v>373</v>
+      </c>
+      <c r="D143" s="15">
+        <v>250.25</v>
+      </c>
+      <c r="E143" s="1">
+        <v>8</v>
+      </c>
+      <c r="F143" s="1">
+        <v>6</v>
+      </c>
+      <c r="G143" s="1">
+        <v>1</v>
+      </c>
+      <c r="H143" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="I143" s="1">
+        <v>-5.21</v>
+      </c>
+      <c r="J143" s="1">
+        <v>-3.06</v>
+      </c>
+      <c r="K143" s="1">
+        <v>-2.67</v>
+      </c>
+      <c r="L143" s="1">
+        <v>-2.74</v>
+      </c>
+      <c r="M143" s="1">
+        <v>-2.73</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A144" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="C144" s="15" t="s">
+        <v>376</v>
+      </c>
+      <c r="D144" s="15">
+        <v>268.22000000000003</v>
+      </c>
+      <c r="E144" s="1">
+        <v>9</v>
+      </c>
+      <c r="F144" s="1">
+        <v>7</v>
+      </c>
+      <c r="G144" s="1">
+        <v>1</v>
+      </c>
+      <c r="H144" s="1">
+        <v>-1.32</v>
+      </c>
+      <c r="I144" s="1">
+        <v>-3.46</v>
+      </c>
+      <c r="J144" s="1">
+        <v>-4.0199999999999996</v>
+      </c>
+      <c r="K144" s="1">
+        <v>-3.45</v>
+      </c>
+      <c r="L144" s="1">
+        <v>-2.83</v>
+      </c>
+      <c r="M144" s="1">
+        <v>-3.01</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A145" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B145" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="C145" s="15" t="s">
+        <v>379</v>
+      </c>
+      <c r="D145" s="15">
+        <v>335.31</v>
+      </c>
+      <c r="E145" s="1">
+        <v>9</v>
+      </c>
+      <c r="F145" s="1">
+        <v>7</v>
+      </c>
+      <c r="G145" s="1">
+        <v>1</v>
+      </c>
+      <c r="H145" s="1">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="I145" s="1">
+        <v>-2.64</v>
+      </c>
+      <c r="J145" s="1">
+        <v>-3.32</v>
+      </c>
+      <c r="K145" s="1">
+        <v>-2.87</v>
+      </c>
+      <c r="L145" s="1">
+        <v>-2.1</v>
+      </c>
+      <c r="M145" s="1">
+        <v>-2.13</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A146" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="C146" s="15" t="s">
+        <v>382</v>
+      </c>
+      <c r="D146" s="15">
+        <v>277.23</v>
+      </c>
+      <c r="E146" s="1">
+        <v>8</v>
+      </c>
+      <c r="F146" s="1">
+        <v>5</v>
+      </c>
+      <c r="G146" s="1">
+        <v>0</v>
+      </c>
+      <c r="H146" s="1">
+        <v>-0.74</v>
+      </c>
+      <c r="I146" s="1">
+        <v>-2.66</v>
+      </c>
+      <c r="J146" s="1">
+        <v>-3.03</v>
+      </c>
+      <c r="K146" s="1">
+        <v>-2.94</v>
+      </c>
+      <c r="L146" s="1">
+        <v>-2.0099999999999998</v>
+      </c>
+      <c r="M146" s="1">
+        <v>-2.2799999999999998</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A147" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="C147" s="15" t="s">
+        <v>385</v>
+      </c>
+      <c r="D147" s="15">
+        <v>293.23</v>
+      </c>
+      <c r="E147" s="1">
+        <v>9</v>
+      </c>
+      <c r="F147" s="1">
+        <v>6</v>
+      </c>
+      <c r="G147" s="1">
+        <v>1</v>
+      </c>
+      <c r="H147" s="1">
+        <v>-0.66</v>
+      </c>
+      <c r="I147" s="1">
+        <v>-3.32</v>
+      </c>
+      <c r="J147" s="1">
+        <v>-4.05</v>
+      </c>
+      <c r="K147" s="1">
+        <v>-3.71</v>
+      </c>
+      <c r="L147" s="1">
+        <v>-2.58</v>
+      </c>
+      <c r="M147" s="1">
+        <v>-2.86</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A148" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="C148" s="15" t="s">
+        <v>388</v>
+      </c>
+      <c r="D148" s="15">
+        <v>263.2</v>
+      </c>
+      <c r="E148" s="1">
+        <v>8</v>
+      </c>
+      <c r="F148" s="1">
+        <v>5</v>
+      </c>
+      <c r="G148" s="1">
+        <v>0</v>
+      </c>
+      <c r="H148" s="1">
+        <v>-0.67</v>
+      </c>
+      <c r="I148" s="1">
+        <v>-2.7</v>
+      </c>
+      <c r="J148" s="1">
+        <v>-3.41</v>
+      </c>
+      <c r="K148" s="1">
+        <v>-3.25</v>
+      </c>
+      <c r="L148" s="1">
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="M148" s="1">
+        <v>-2.4500000000000002</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A149" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B149" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="C149" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="D149" s="15">
+        <v>248.23</v>
+      </c>
+      <c r="E149" s="1">
+        <v>6</v>
+      </c>
+      <c r="F149" s="1">
+        <v>5</v>
+      </c>
+      <c r="G149" s="1">
+        <v>0</v>
+      </c>
+      <c r="H149" s="1">
+        <v>-1.0900000000000001</v>
+      </c>
+      <c r="I149" s="1">
+        <v>-2.88</v>
+      </c>
+      <c r="J149" s="1">
+        <v>-3.19</v>
+      </c>
+      <c r="K149" s="1">
+        <v>-2.78</v>
+      </c>
+      <c r="L149" s="1">
+        <v>-2.1800000000000002</v>
+      </c>
+      <c r="M149" s="1">
+        <v>-2.42</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A150" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B150" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="C150" s="15" t="s">
+        <v>394</v>
+      </c>
+      <c r="D150" s="15">
+        <v>249.22</v>
+      </c>
+      <c r="E150" s="1">
+        <v>7</v>
+      </c>
+      <c r="F150" s="1">
+        <v>5</v>
+      </c>
+      <c r="G150" s="1">
+        <v>0</v>
+      </c>
+      <c r="H150" s="1">
+        <v>-0.48</v>
+      </c>
+      <c r="I150" s="1">
+        <v>-2.23</v>
+      </c>
+      <c r="J150" s="1">
+        <v>-2.59</v>
+      </c>
+      <c r="K150" s="1">
+        <v>-2.37</v>
+      </c>
+      <c r="L150" s="1">
+        <v>-1.94</v>
+      </c>
+      <c r="M150" s="1">
+        <v>-1.92</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A151" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B151" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="C151" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="D151" s="15">
+        <v>251.19</v>
+      </c>
+      <c r="E151" s="1">
+        <v>8</v>
+      </c>
+      <c r="F151" s="1">
+        <v>6</v>
+      </c>
+      <c r="G151" s="1">
+        <v>1</v>
+      </c>
+      <c r="H151" s="1">
+        <v>-0.67</v>
+      </c>
+      <c r="I151" s="1">
+        <v>-3.34</v>
+      </c>
+      <c r="J151" s="1">
+        <v>-3.66</v>
+      </c>
+      <c r="K151" s="1">
+        <v>-3.06</v>
+      </c>
+      <c r="L151" s="1">
+        <v>-2.85</v>
+      </c>
+      <c r="M151" s="1">
+        <v>-2.72</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A152" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B152" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="C152" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="D152" s="15">
+        <v>399.39</v>
+      </c>
+      <c r="E152" s="1">
+        <v>9</v>
+      </c>
+      <c r="F152" s="1">
+        <v>6</v>
+      </c>
+      <c r="G152" s="1">
+        <v>1</v>
+      </c>
+      <c r="H152" s="1">
+        <v>1.36</v>
+      </c>
+      <c r="I152" s="1">
+        <v>-1.43</v>
+      </c>
+      <c r="J152" s="1">
+        <v>-1.8</v>
+      </c>
+      <c r="K152" s="1">
+        <v>-1.8</v>
+      </c>
+      <c r="L152" s="1">
+        <v>-0.64</v>
+      </c>
+      <c r="M152" s="1">
+        <v>-0.86</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A153" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B153" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="C153" s="15" t="s">
+        <v>402</v>
+      </c>
+      <c r="D153" s="15">
+        <v>453.36</v>
+      </c>
+      <c r="E153" s="1">
+        <v>12</v>
+      </c>
+      <c r="F153" s="1">
+        <v>6</v>
+      </c>
+      <c r="G153" s="1">
+        <v>1</v>
+      </c>
+      <c r="H153" s="1">
+        <v>0.88</v>
+      </c>
+      <c r="I153" s="1">
+        <v>-0.32</v>
+      </c>
+      <c r="J153" s="1">
+        <v>0</v>
+      </c>
+      <c r="K153" s="1">
+        <v>-1.45</v>
+      </c>
+      <c r="L153" s="1">
+        <v>-0.02</v>
+      </c>
+      <c r="M153" s="1">
+        <v>-0.18</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A154" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B154" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="C154" s="15" t="s">
+        <v>405</v>
+      </c>
+      <c r="D154" s="15">
+        <v>385.37</v>
+      </c>
+      <c r="E154" s="1">
+        <v>9</v>
+      </c>
+      <c r="F154" s="1">
+        <v>6</v>
+      </c>
+      <c r="G154" s="1">
+        <v>1</v>
+      </c>
+      <c r="H154" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="I154" s="1">
+        <v>-1.42</v>
+      </c>
+      <c r="J154" s="1">
+        <v>-2.19</v>
+      </c>
+      <c r="K154" s="1">
+        <v>-1.63</v>
+      </c>
+      <c r="L154" s="1">
+        <v>-0.89</v>
+      </c>
+      <c r="M154" s="1">
+        <v>-1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A155" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B155" s="19" t="s">
+        <v>407</v>
+      </c>
+      <c r="C155" s="15" t="s">
+        <v>408</v>
+      </c>
+      <c r="D155" s="15">
+        <v>478.29</v>
+      </c>
+      <c r="E155" s="1">
+        <v>9</v>
+      </c>
+      <c r="F155" s="1">
+        <v>6</v>
+      </c>
+      <c r="G155" s="1">
+        <v>1</v>
+      </c>
+      <c r="H155" s="1">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="I155" s="1">
+        <v>-0.64</v>
+      </c>
+      <c r="J155" s="1">
+        <v>-1.42</v>
+      </c>
+      <c r="K155" s="1">
+        <v>-1.45</v>
+      </c>
+      <c r="L155" s="1">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="M155" s="1">
+        <v>-0.49</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A156" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B156" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="C156" s="15" t="s">
+        <v>411</v>
+      </c>
+      <c r="D156" s="15">
+        <v>457.43</v>
+      </c>
+      <c r="E156" s="1">
+        <v>11</v>
+      </c>
+      <c r="F156" s="1">
+        <v>7</v>
+      </c>
+      <c r="G156" s="1">
+        <v>2</v>
+      </c>
+      <c r="H156" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="I156" s="1">
+        <v>-2</v>
+      </c>
+      <c r="J156" s="1">
+        <v>-1.95</v>
+      </c>
+      <c r="K156" s="1">
+        <v>-2.12</v>
+      </c>
+      <c r="L156" s="1">
+        <v>-0.85</v>
+      </c>
+      <c r="M156" s="1">
+        <v>-1.2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4844,18 +8066,20 @@
   </sheetPr>
   <dimension ref="A1:M80"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:M80"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="37.88671875" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" customWidth="1"/>
-    <col min="8" max="8" width="16.88671875" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" customWidth="1"/>
+    <col min="1" max="1" width="37.90625" customWidth="1"/>
+    <col min="2" max="2" width="19.36328125" customWidth="1"/>
+    <col min="8" max="8" width="16.90625" customWidth="1"/>
+    <col min="9" max="9" width="16.36328125" customWidth="1"/>
     <col min="10" max="10" width="15" customWidth="1"/>
-    <col min="11" max="11" width="14.33203125" customWidth="1"/>
-    <col min="12" max="12" width="18.109375" customWidth="1"/>
-    <col min="13" max="13" width="16.77734375" customWidth="1"/>
+    <col min="11" max="11" width="14.36328125" customWidth="1"/>
+    <col min="12" max="12" width="18.08984375" customWidth="1"/>
+    <col min="13" max="13" width="16.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -4899,7 +8123,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>212</v>
       </c>
@@ -4940,7 +8164,7 @@
         <v>-2.63</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>215</v>
       </c>
@@ -4981,7 +8205,7 @@
         <v>-1.37</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>218</v>
       </c>
@@ -5022,7 +8246,7 @@
         <v>-1.84</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>221</v>
       </c>
@@ -5063,7 +8287,7 @@
         <v>-0.49</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>224</v>
       </c>
@@ -5104,7 +8328,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>227</v>
       </c>
@@ -5145,7 +8369,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>230</v>
       </c>
@@ -5186,7 +8410,7 @@
         <v>-2.34</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>232</v>
       </c>
@@ -5227,7 +8451,7 @@
         <v>-1.71</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>235</v>
       </c>
@@ -5268,7 +8492,7 @@
         <v>-2.65</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>237</v>
       </c>
@@ -5309,7 +8533,7 @@
         <v>-1.31</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>240</v>
       </c>
@@ -5350,7 +8574,7 @@
         <v>-3.35</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" ht="15.75" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>243</v>
       </c>
@@ -5391,7 +8615,7 @@
         <v>-3.67</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" ht="15.75" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>245</v>
       </c>
@@ -5432,7 +8656,7 @@
         <v>-2.48</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" ht="15.75" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>247</v>
       </c>
@@ -5473,7 +8697,7 @@
         <v>-2.04</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" ht="15.75" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>249</v>
       </c>
@@ -5514,7 +8738,7 @@
         <v>-2.86</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" ht="15.75" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>252</v>
       </c>
@@ -5555,7 +8779,7 @@
         <v>-2.27</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" ht="15.75" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>254</v>
       </c>
@@ -5596,7 +8820,7 @@
         <v>-1.44</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" ht="15.75" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>256</v>
       </c>
@@ -5637,7 +8861,7 @@
         <v>-1.79</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" ht="50">
       <c r="A20" s="1" t="s">
         <v>258</v>
       </c>
@@ -5678,7 +8902,7 @@
         <v>-0.91</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" ht="37.5">
       <c r="A21" s="1" t="s">
         <v>261</v>
       </c>
@@ -5719,7 +8943,7 @@
         <v>-3.93</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" ht="37.5">
       <c r="A22" s="1" t="s">
         <v>263</v>
       </c>
@@ -5760,7 +8984,7 @@
         <v>-3.35</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" ht="50">
       <c r="A23" s="1" t="s">
         <v>264</v>
       </c>
@@ -5801,7 +9025,7 @@
         <v>-1.93</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" ht="50">
       <c r="A24" s="1" t="s">
         <v>267</v>
       </c>
@@ -5842,7 +9066,7 @@
         <v>-1.31</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" ht="50">
       <c r="A25" s="1" t="s">
         <v>270</v>
       </c>
@@ -5883,7 +9107,7 @@
         <v>-1.31</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" ht="37.5">
       <c r="A26" s="1" t="s">
         <v>272</v>
       </c>
@@ -5924,7 +9148,7 @@
         <v>-2.52</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" ht="37.5">
       <c r="A27" s="1" t="s">
         <v>275</v>
       </c>
@@ -5965,7 +9189,7 @@
         <v>-2.25</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" ht="50">
       <c r="A28" s="1" t="s">
         <v>278</v>
       </c>
@@ -6006,7 +9230,7 @@
         <v>-2.36</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" ht="37.5">
       <c r="A29" s="1" t="s">
         <v>280</v>
       </c>
@@ -6047,7 +9271,7 @@
         <v>-1.83</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" ht="50">
       <c r="A30" s="1" t="s">
         <v>283</v>
       </c>
@@ -6088,7 +9312,7 @@
         <v>-0.91</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" ht="37.5">
       <c r="A31" s="1" t="s">
         <v>284</v>
       </c>
@@ -6129,7 +9353,7 @@
         <v>-2.64</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" ht="50">
       <c r="A32" s="1" t="s">
         <v>286</v>
       </c>
@@ -6170,7 +9394,7 @@
         <v>-0.51</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" ht="37.5">
       <c r="A33" s="1" t="s">
         <v>289</v>
       </c>
@@ -6211,7 +9435,7 @@
         <v>-2.5299999999999998</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" ht="37.5">
       <c r="A34" s="1" t="s">
         <v>291</v>
       </c>
@@ -6252,7 +9476,7 @@
         <v>-3.5</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" ht="37.5">
       <c r="A35" s="1" t="s">
         <v>293</v>
       </c>
@@ -6293,7 +9517,7 @@
         <v>-2.21</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" ht="37.5">
       <c r="A36" s="1" t="s">
         <v>295</v>
       </c>
@@ -6334,7 +9558,7 @@
         <v>-2.74</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" ht="37.5">
       <c r="A37" s="1" t="s">
         <v>297</v>
       </c>
@@ -6375,7 +9599,7 @@
         <v>-2.19</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" ht="37.5">
       <c r="A38" s="1" t="s">
         <v>299</v>
       </c>
@@ -6416,7 +9640,7 @@
         <v>-2.78</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:13" ht="37.5">
       <c r="A39" s="1" t="s">
         <v>301</v>
       </c>
@@ -6457,7 +9681,7 @@
         <v>-1.64</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" ht="50">
       <c r="A40" s="1" t="s">
         <v>304</v>
       </c>
@@ -6498,7 +9722,7 @@
         <v>-1.95</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" ht="37.5">
       <c r="A41" s="5" t="s">
         <v>306</v>
       </c>
@@ -6539,7 +9763,7 @@
         <v>-2.98</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" ht="50">
       <c r="A42" s="1" t="s">
         <v>309</v>
       </c>
@@ -6580,7 +9804,7 @@
         <v>-2.63</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" ht="37.5">
       <c r="A43" s="16" t="s">
         <v>311</v>
       </c>
@@ -6621,7 +9845,7 @@
         <v>-3.11</v>
       </c>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:13" ht="37.5">
       <c r="A44" s="1" t="s">
         <v>313</v>
       </c>
@@ -6662,7 +9886,7 @@
         <v>-2.27</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" ht="62.5">
       <c r="A45" s="1" t="s">
         <v>315</v>
       </c>
@@ -6703,7 +9927,7 @@
         <v>-1.65</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" ht="37.5">
       <c r="A46" s="1" t="s">
         <v>317</v>
       </c>
@@ -6744,7 +9968,7 @@
         <v>-2.27</v>
       </c>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:13" ht="37.5">
       <c r="A47" s="1" t="s">
         <v>318</v>
       </c>
@@ -6785,7 +10009,7 @@
         <v>-1.35</v>
       </c>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:13" ht="37.5">
       <c r="A48" s="1" t="s">
         <v>320</v>
       </c>
@@ -6826,7 +10050,7 @@
         <v>-2.31</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:13" ht="37.5">
       <c r="A49" s="1" t="s">
         <v>323</v>
       </c>
@@ -6867,7 +10091,7 @@
         <v>-1.4</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:13" ht="37.5">
       <c r="A50" s="1" t="s">
         <v>325</v>
       </c>
@@ -6908,7 +10132,7 @@
         <v>-1.4</v>
       </c>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:13" ht="37.5">
       <c r="A51" s="1" t="s">
         <v>327</v>
       </c>
@@ -6949,7 +10173,7 @@
         <v>-1.63</v>
       </c>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:13" ht="37.5">
       <c r="A52" s="1" t="s">
         <v>330</v>
       </c>
@@ -6990,7 +10214,7 @@
         <v>-2.0699999999999998</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:13" ht="37.5">
       <c r="A53" s="1" t="s">
         <v>333</v>
       </c>
@@ -7031,7 +10255,7 @@
         <v>-0.87</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:13" ht="50">
       <c r="A54" s="1" t="s">
         <v>336</v>
       </c>
@@ -7072,7 +10296,7 @@
         <v>-2.02</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:13" ht="50">
       <c r="A55" s="1" t="s">
         <v>338</v>
       </c>
@@ -7113,7 +10337,7 @@
         <v>-2.02</v>
       </c>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:13" ht="62.5">
       <c r="A56" s="17" t="s">
         <v>339</v>
       </c>
@@ -7154,7 +10378,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:13" ht="50">
       <c r="A57" s="5" t="s">
         <v>342</v>
       </c>
@@ -7195,7 +10419,7 @@
         <v>-0.06</v>
       </c>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:13" ht="62.5">
       <c r="A58" s="5" t="s">
         <v>345</v>
       </c>
@@ -7236,7 +10460,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:13" ht="50">
       <c r="A59" s="5" t="s">
         <v>348</v>
       </c>
@@ -7277,7 +10501,7 @@
         <v>-0.14000000000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:13" ht="50">
       <c r="A60" s="1" t="s">
         <v>351</v>
       </c>
@@ -7318,7 +10542,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="61" spans="1:13">
+    <row r="61" spans="1:13" ht="37.5">
       <c r="A61" s="1" t="s">
         <v>354</v>
       </c>
@@ -7359,7 +10583,7 @@
         <v>-2.36</v>
       </c>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:13" ht="50">
       <c r="A62" s="1" t="s">
         <v>356</v>
       </c>
@@ -7400,7 +10624,7 @@
         <v>-1.03</v>
       </c>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:13" ht="50">
       <c r="A63" s="1" t="s">
         <v>359</v>
       </c>
@@ -7441,7 +10665,7 @@
         <v>-2.0699999999999998</v>
       </c>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:13" ht="62.5">
       <c r="A64" s="5" t="s">
         <v>362</v>
       </c>
@@ -7482,7 +10706,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="65" spans="1:13">
+    <row r="65" spans="1:13" ht="62.5">
       <c r="A65" s="5" t="s">
         <v>365</v>
       </c>
@@ -7523,7 +10747,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="66" spans="1:13">
+    <row r="66" spans="1:13" ht="62.5">
       <c r="A66" s="5" t="s">
         <v>368</v>
       </c>
@@ -7564,7 +10788,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="67" spans="1:13">
+    <row r="67" spans="1:13" ht="37.5">
       <c r="A67" s="1" t="s">
         <v>371</v>
       </c>
@@ -7605,7 +10829,7 @@
         <v>-2.73</v>
       </c>
     </row>
-    <row r="68" spans="1:13">
+    <row r="68" spans="1:13" ht="25">
       <c r="A68" s="1" t="s">
         <v>374</v>
       </c>
@@ -7646,7 +10870,7 @@
         <v>-3.01</v>
       </c>
     </row>
-    <row r="69" spans="1:13">
+    <row r="69" spans="1:13" ht="37.5">
       <c r="A69" s="1" t="s">
         <v>377</v>
       </c>
@@ -7687,7 +10911,7 @@
         <v>-2.13</v>
       </c>
     </row>
-    <row r="70" spans="1:13">
+    <row r="70" spans="1:13" ht="37.5">
       <c r="A70" s="1" t="s">
         <v>380</v>
       </c>
@@ -7728,7 +10952,7 @@
         <v>-2.2799999999999998</v>
       </c>
     </row>
-    <row r="71" spans="1:13">
+    <row r="71" spans="1:13" ht="37.5">
       <c r="A71" s="5" t="s">
         <v>383</v>
       </c>
@@ -7769,7 +10993,7 @@
         <v>-2.86</v>
       </c>
     </row>
-    <row r="72" spans="1:13">
+    <row r="72" spans="1:13" ht="37.5">
       <c r="A72" s="5" t="s">
         <v>386</v>
       </c>
@@ -7810,7 +11034,7 @@
         <v>-2.4500000000000002</v>
       </c>
     </row>
-    <row r="73" spans="1:13">
+    <row r="73" spans="1:13" ht="37.5">
       <c r="A73" s="1" t="s">
         <v>389</v>
       </c>
@@ -7851,7 +11075,7 @@
         <v>-2.42</v>
       </c>
     </row>
-    <row r="74" spans="1:13">
+    <row r="74" spans="1:13" ht="25">
       <c r="A74" s="1" t="s">
         <v>392</v>
       </c>
@@ -7892,7 +11116,7 @@
         <v>-1.92</v>
       </c>
     </row>
-    <row r="75" spans="1:13">
+    <row r="75" spans="1:13" ht="25">
       <c r="A75" s="1" t="s">
         <v>395</v>
       </c>
@@ -7933,7 +11157,7 @@
         <v>-2.72</v>
       </c>
     </row>
-    <row r="76" spans="1:13">
+    <row r="76" spans="1:13" ht="50">
       <c r="A76" s="1" t="s">
         <v>398</v>
       </c>
@@ -7974,7 +11198,7 @@
         <v>-0.86</v>
       </c>
     </row>
-    <row r="77" spans="1:13">
+    <row r="77" spans="1:13" ht="50">
       <c r="A77" s="1" t="s">
         <v>400</v>
       </c>
@@ -8015,7 +11239,7 @@
         <v>-0.18</v>
       </c>
     </row>
-    <row r="78" spans="1:13">
+    <row r="78" spans="1:13" ht="50">
       <c r="A78" s="1" t="s">
         <v>403</v>
       </c>
@@ -8056,7 +11280,7 @@
         <v>-1.1200000000000001</v>
       </c>
     </row>
-    <row r="79" spans="1:13">
+    <row r="79" spans="1:13" ht="46">
       <c r="A79" s="1" t="s">
         <v>406</v>
       </c>
@@ -8097,7 +11321,7 @@
         <v>-0.49</v>
       </c>
     </row>
-    <row r="80" spans="1:13">
+    <row r="80" spans="1:13" ht="50">
       <c r="A80" s="1" t="s">
         <v>409</v>
       </c>

--- a/descriptions.xlsx
+++ b/descriptions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ananh\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86B1F784-B0CF-4CCD-BD23-A451E0BF19A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC39574C-5657-458C-9E7F-B193E1F277F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="412">
   <si>
     <t>Sialic acid analogues</t>
   </si>
@@ -1260,9 +1260,6 @@
   </si>
   <si>
     <t>C20H27NO11</t>
-  </si>
-  <si>
-    <t>Name</t>
   </si>
 </sst>
 </file>
@@ -1625,11 +1622,9 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z156"/>
+  <dimension ref="A1:Z84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C75" sqref="C75"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -1647,7 +1642,7 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="2" t="s">
-        <v>412</v>
+        <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -4815,3244 +4810,26 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="78" spans="1:26" ht="25">
-      <c r="A78" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="C78" s="15" t="s">
-        <v>214</v>
-      </c>
-      <c r="D78" s="15">
-        <v>332.31</v>
-      </c>
-      <c r="E78" s="1">
-        <v>8</v>
-      </c>
-      <c r="F78" s="1">
-        <v>7</v>
-      </c>
-      <c r="G78" s="1">
-        <v>2</v>
-      </c>
-      <c r="H78" s="15">
-        <v>-0.01</v>
-      </c>
-      <c r="I78" s="15">
-        <v>-3.19</v>
-      </c>
-      <c r="J78" s="15">
-        <v>-3.79</v>
-      </c>
-      <c r="K78" s="15">
-        <v>-3.18</v>
-      </c>
-      <c r="L78" s="15">
-        <v>-3.01</v>
-      </c>
-      <c r="M78" s="15">
-        <v>-2.63</v>
-      </c>
+    <row r="78" spans="1:26" ht="12.5">
+      <c r="D78" s="9"/>
     </row>
     <row r="79" spans="1:26" ht="12.5">
-      <c r="A79" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="B79" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="C79" s="15" t="s">
-        <v>217</v>
-      </c>
-      <c r="D79" s="15">
-        <v>426.38</v>
-      </c>
-      <c r="E79" s="1">
-        <v>12</v>
-      </c>
-      <c r="F79" s="1">
-        <v>7</v>
-      </c>
-      <c r="G79" s="1">
-        <v>2</v>
-      </c>
-      <c r="H79" s="15">
-        <v>0.74</v>
-      </c>
-      <c r="I79" s="15">
-        <v>-0.94</v>
-      </c>
-      <c r="J79" s="15">
-        <v>-1.71</v>
-      </c>
-      <c r="K79" s="15">
-        <v>-2.57</v>
-      </c>
-      <c r="L79" s="15">
-        <v>-2.36</v>
-      </c>
-      <c r="M79" s="15">
-        <v>-1.37</v>
-      </c>
+      <c r="D79" s="9"/>
     </row>
     <row r="80" spans="1:26" ht="12.5">
-      <c r="A80" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B80" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="C80" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="D80" s="15">
-        <v>393.39</v>
-      </c>
-      <c r="E80" s="1">
-        <v>10</v>
-      </c>
-      <c r="F80" s="1">
-        <v>7</v>
-      </c>
-      <c r="G80" s="1">
-        <v>2</v>
-      </c>
-      <c r="H80" s="1">
-        <v>0.69</v>
-      </c>
-      <c r="I80" s="1">
-        <v>-3.16</v>
-      </c>
-      <c r="J80" s="1">
-        <v>-2.74</v>
-      </c>
-      <c r="K80" s="1">
-        <v>-2.86</v>
-      </c>
-      <c r="L80" s="1">
-        <v>-1.1399999999999999</v>
-      </c>
-      <c r="M80" s="1">
-        <v>-1.84</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" ht="12.5">
-      <c r="A81" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="B81" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="C81" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="D81" s="1">
-        <v>393.43</v>
-      </c>
-      <c r="E81" s="1">
-        <v>9</v>
-      </c>
-      <c r="F81" s="1">
-        <v>7</v>
-      </c>
-      <c r="G81" s="1">
-        <v>1</v>
-      </c>
-      <c r="H81" s="1">
-        <v>1.63</v>
-      </c>
-      <c r="I81" s="1">
-        <v>-0.47</v>
-      </c>
-      <c r="J81" s="1">
-        <v>-1.53</v>
-      </c>
-      <c r="K81" s="1">
-        <v>-1.76</v>
-      </c>
-      <c r="L81" s="1">
-        <v>-0.31</v>
-      </c>
-      <c r="M81" s="1">
-        <v>-0.49</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" ht="12.5">
-      <c r="A82" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B82" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="C82" s="15" t="s">
-        <v>226</v>
-      </c>
-      <c r="D82" s="1">
-        <v>339.34</v>
-      </c>
-      <c r="E82" s="1">
-        <v>7</v>
-      </c>
-      <c r="F82" s="1">
-        <v>4</v>
-      </c>
-      <c r="G82" s="1">
-        <v>0</v>
-      </c>
-      <c r="H82" s="1">
-        <v>1.83</v>
-      </c>
-      <c r="I82" s="1">
-        <v>-0.2</v>
-      </c>
-      <c r="J82" s="1">
-        <v>-0.52</v>
-      </c>
-      <c r="K82" s="1">
-        <v>-0.73</v>
-      </c>
-      <c r="L82" s="1">
-        <v>0.09</v>
-      </c>
-      <c r="M82" s="1">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" ht="12.5">
-      <c r="A83" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="B83" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="C83" s="15" t="s">
-        <v>229</v>
-      </c>
-      <c r="D83" s="1">
-        <v>286.37</v>
-      </c>
-      <c r="E83" s="1">
-        <v>5</v>
-      </c>
-      <c r="F83" s="1">
-        <v>3</v>
-      </c>
-      <c r="G83" s="1">
-        <v>0</v>
-      </c>
-      <c r="H83" s="15">
-        <v>1.97</v>
-      </c>
-      <c r="I83" s="15">
-        <v>-1.75</v>
-      </c>
-      <c r="J83" s="15">
-        <v>0.89</v>
-      </c>
-      <c r="K83" s="15">
-        <v>0.22</v>
-      </c>
-      <c r="L83" s="15">
-        <v>0.38</v>
-      </c>
-      <c r="M83" s="15">
-        <v>0.34</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" ht="12.5">
-      <c r="A84" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="B84" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="C84" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="D84" s="15">
-        <v>323.3</v>
-      </c>
-      <c r="E84" s="1">
-        <v>9</v>
-      </c>
-      <c r="F84" s="1">
-        <v>7</v>
-      </c>
-      <c r="G84" s="1">
-        <v>1</v>
-      </c>
-      <c r="H84" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="I84" s="1">
-        <v>-2.99</v>
-      </c>
-      <c r="J84" s="1">
-        <v>-3.48</v>
-      </c>
-      <c r="K84" s="1">
-        <v>-3.04</v>
-      </c>
-      <c r="L84" s="1">
-        <v>-2.2999999999999998</v>
-      </c>
-      <c r="M84" s="1">
-        <v>-2.34</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A85" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="C85" s="15" t="s">
-        <v>234</v>
-      </c>
-      <c r="D85" s="1">
-        <v>351.35</v>
-      </c>
-      <c r="E85" s="1">
-        <v>9</v>
-      </c>
-      <c r="F85" s="1">
-        <v>7</v>
-      </c>
-      <c r="G85" s="1">
-        <v>1</v>
-      </c>
-      <c r="H85" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="I85" s="1">
-        <v>-2.1</v>
-      </c>
-      <c r="J85" s="1">
-        <v>-2.7</v>
-      </c>
-      <c r="K85" s="1">
-        <v>-2.5099999999999998</v>
-      </c>
-      <c r="L85" s="1">
-        <v>-1.52</v>
-      </c>
-      <c r="M85" s="1">
-        <v>-1.71</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A86" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="B86" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="C86" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="D86" s="15">
-        <v>365.33</v>
-      </c>
-      <c r="E86" s="1">
-        <v>10</v>
-      </c>
-      <c r="F86" s="1">
-        <v>7</v>
-      </c>
-      <c r="G86" s="1">
-        <v>2</v>
-      </c>
-      <c r="H86" s="15">
-        <v>-0.56000000000000005</v>
-      </c>
-      <c r="I86" s="15">
-        <v>-3.88</v>
-      </c>
-      <c r="J86" s="1">
-        <v>-3.52</v>
-      </c>
-      <c r="K86" s="1">
-        <v>-3.37</v>
-      </c>
-      <c r="L86" s="1">
-        <v>-1.94</v>
-      </c>
-      <c r="M86" s="1">
-        <v>-2.65</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A87" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="B87" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="C87" s="15" t="s">
-        <v>239</v>
-      </c>
-      <c r="D87" s="15">
-        <v>365.38</v>
-      </c>
-      <c r="E87" s="1">
-        <v>9</v>
-      </c>
-      <c r="F87" s="1">
-        <v>7</v>
-      </c>
-      <c r="G87" s="1">
-        <v>1</v>
-      </c>
-      <c r="H87" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="I87" s="1">
-        <v>-1.55</v>
-      </c>
-      <c r="J87" s="1">
-        <v>-2.31</v>
-      </c>
-      <c r="K87" s="1">
-        <v>-2.25</v>
-      </c>
-      <c r="L87" s="1">
-        <v>-1.1200000000000001</v>
-      </c>
-      <c r="M87" s="1">
-        <v>-1.31</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A88" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="B88" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="C88" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="D88" s="15">
-        <v>325.27</v>
-      </c>
-      <c r="E88" s="1">
-        <v>10</v>
-      </c>
-      <c r="F88" s="1">
-        <v>8</v>
-      </c>
-      <c r="G88" s="1">
-        <v>2</v>
-      </c>
-      <c r="H88" s="1">
-        <v>-0.38</v>
-      </c>
-      <c r="I88" s="1">
-        <v>-4.12</v>
-      </c>
-      <c r="J88" s="1">
-        <v>-4.9000000000000004</v>
-      </c>
-      <c r="K88" s="1">
-        <v>-4.09</v>
-      </c>
-      <c r="L88" s="1">
-        <v>-3.25</v>
-      </c>
-      <c r="M88" s="1">
-        <v>-3.35</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A89" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="B89" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="C89" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="D89" s="1">
-        <v>324.27999999999997</v>
-      </c>
-      <c r="E89" s="1">
-        <v>9</v>
-      </c>
-      <c r="F89" s="1">
-        <v>8</v>
-      </c>
-      <c r="G89" s="1">
-        <v>2</v>
-      </c>
-      <c r="H89" s="1">
-        <v>-0.08</v>
-      </c>
-      <c r="I89" s="1">
-        <v>-4.7699999999999996</v>
-      </c>
-      <c r="J89" s="1">
-        <v>-5.5</v>
-      </c>
-      <c r="K89" s="1">
-        <v>-4.49</v>
-      </c>
-      <c r="L89" s="1">
-        <v>-3.49</v>
-      </c>
-      <c r="M89" s="1">
-        <v>-3.67</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A90" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="B90" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="C90" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="D90" s="15">
-        <v>323.3</v>
-      </c>
-      <c r="E90" s="1">
-        <v>9</v>
-      </c>
-      <c r="F90" s="1">
-        <v>6</v>
-      </c>
-      <c r="G90" s="1">
-        <v>1</v>
-      </c>
-      <c r="H90" s="1">
-        <v>-0.28999999999999998</v>
-      </c>
-      <c r="I90" s="1">
-        <v>-3.14</v>
-      </c>
-      <c r="J90" s="1">
-        <v>-3.78</v>
-      </c>
-      <c r="K90" s="1">
-        <v>-3.04</v>
-      </c>
-      <c r="L90" s="1">
-        <v>-2.15</v>
-      </c>
-      <c r="M90" s="1">
-        <v>-2.48</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A91" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="B91" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="C91" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="D91" s="1">
-        <v>337.32</v>
-      </c>
-      <c r="E91" s="1">
-        <v>9</v>
-      </c>
-      <c r="F91" s="1">
-        <v>6</v>
-      </c>
-      <c r="G91" s="1">
-        <v>1</v>
-      </c>
-      <c r="H91" s="1">
-        <v>0.52</v>
-      </c>
-      <c r="I91" s="1">
-        <v>-2.77</v>
-      </c>
-      <c r="J91" s="1">
-        <v>-3.39</v>
-      </c>
-      <c r="K91" s="1">
-        <v>-2.77</v>
-      </c>
-      <c r="L91" s="1">
-        <v>-1.77</v>
-      </c>
-      <c r="M91" s="1">
-        <v>-2.04</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A92" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="B92" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="C92" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="D92" s="1">
-        <v>295.24</v>
-      </c>
-      <c r="E92" s="1">
-        <v>9</v>
-      </c>
-      <c r="F92" s="1">
-        <v>7</v>
-      </c>
-      <c r="G92" s="1">
-        <v>1</v>
-      </c>
-      <c r="H92" s="1">
-        <v>-0.46</v>
-      </c>
-      <c r="I92" s="1">
-        <v>-3.45</v>
-      </c>
-      <c r="J92" s="1">
-        <v>-4.26</v>
-      </c>
-      <c r="K92" s="1">
-        <v>-3.21</v>
-      </c>
-      <c r="L92" s="1">
-        <v>-2.9</v>
-      </c>
-      <c r="M92" s="1">
-        <v>-2.86</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A93" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="B93" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="C93" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="D93" s="1">
-        <v>323.3</v>
-      </c>
-      <c r="E93" s="1">
-        <v>9</v>
-      </c>
-      <c r="F93" s="1">
-        <v>6</v>
-      </c>
-      <c r="G93" s="1">
-        <v>1</v>
-      </c>
-      <c r="H93" s="1">
-        <v>0</v>
-      </c>
-      <c r="I93" s="1">
-        <v>-2.93</v>
-      </c>
-      <c r="J93" s="1">
-        <v>-3.22</v>
-      </c>
-      <c r="K93" s="1">
-        <v>-3.04</v>
-      </c>
-      <c r="L93" s="1">
-        <v>-2.15</v>
-      </c>
-      <c r="M93" s="1">
-        <v>-2.27</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A94" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="B94" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="C94" s="15" t="s">
-        <v>187</v>
-      </c>
-      <c r="D94" s="15">
-        <v>339.36</v>
-      </c>
-      <c r="E94" s="1">
-        <v>8</v>
-      </c>
-      <c r="F94" s="1">
-        <v>6</v>
-      </c>
-      <c r="G94" s="1">
-        <v>1</v>
-      </c>
-      <c r="H94" s="15">
-        <v>0.93</v>
-      </c>
-      <c r="I94" s="15">
-        <v>-2.33</v>
-      </c>
-      <c r="J94" s="15">
-        <v>-2.42</v>
-      </c>
-      <c r="K94" s="15">
-        <v>-2.68</v>
-      </c>
-      <c r="L94" s="1">
-        <v>-0.7</v>
-      </c>
-      <c r="M94" s="15">
-        <v>-1.44</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A95" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="B95" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="C95" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="D95" s="15">
-        <v>337.32</v>
-      </c>
-      <c r="E95" s="1">
-        <v>9</v>
-      </c>
-      <c r="F95" s="1">
-        <v>6</v>
-      </c>
-      <c r="G95" s="1">
-        <v>1</v>
-      </c>
-      <c r="H95" s="1">
-        <v>0.86</v>
-      </c>
-      <c r="I95" s="1">
-        <v>-2.46</v>
-      </c>
-      <c r="J95" s="1">
-        <v>-2.83</v>
-      </c>
-      <c r="K95" s="1">
-        <v>-2.77</v>
-      </c>
-      <c r="L95" s="1">
-        <v>-1.77</v>
-      </c>
-      <c r="M95" s="1">
-        <v>-1.79</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A96" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="B96" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="C96" s="15" t="s">
-        <v>260</v>
-      </c>
-      <c r="D96" s="1">
-        <v>399.39</v>
-      </c>
-      <c r="E96" s="1">
-        <v>9</v>
-      </c>
-      <c r="F96" s="1">
-        <v>6</v>
-      </c>
-      <c r="G96" s="1">
-        <v>1</v>
-      </c>
-      <c r="H96" s="1">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="I96" s="1">
-        <v>-1.43</v>
-      </c>
-      <c r="J96" s="1">
-        <v>-1.8</v>
-      </c>
-      <c r="K96" s="1">
-        <v>-1.8</v>
-      </c>
-      <c r="L96" s="1">
-        <v>-0.64</v>
-      </c>
-      <c r="M96" s="1">
-        <v>-0.91</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A97" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="B97" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="C97" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="D97" s="15">
-        <v>324.27999999999997</v>
-      </c>
-      <c r="E97" s="1">
-        <v>10</v>
-      </c>
-      <c r="F97" s="1">
-        <v>8</v>
-      </c>
-      <c r="G97" s="1">
-        <v>2</v>
-      </c>
-      <c r="H97" s="1">
-        <v>-0.5</v>
-      </c>
-      <c r="I97" s="1">
-        <v>-6.65</v>
-      </c>
-      <c r="J97" s="1">
-        <v>-4.93</v>
-      </c>
-      <c r="K97" s="1">
-        <v>-4.09</v>
-      </c>
-      <c r="L97" s="1">
-        <v>-3.49</v>
-      </c>
-      <c r="M97" s="1">
-        <v>-3.93</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A98" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="B98" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="C98" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="D98" s="15">
-        <v>325.27</v>
-      </c>
-      <c r="E98" s="1">
-        <v>10</v>
-      </c>
-      <c r="F98" s="1">
-        <v>8</v>
-      </c>
-      <c r="G98" s="1">
-        <v>2</v>
-      </c>
-      <c r="H98" s="1">
-        <v>-0.38</v>
-      </c>
-      <c r="I98" s="1">
-        <v>-4.12</v>
-      </c>
-      <c r="J98" s="1">
-        <v>-4.9000000000000004</v>
-      </c>
-      <c r="K98" s="1">
-        <v>-4.09</v>
-      </c>
-      <c r="L98" s="1">
-        <v>-3.25</v>
-      </c>
-      <c r="M98" s="1">
-        <v>-3.35</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A99" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="B99" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="C99" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="D99" s="1">
-        <v>341.29</v>
-      </c>
-      <c r="E99" s="1">
-        <v>10</v>
-      </c>
-      <c r="F99" s="1">
-        <v>6</v>
-      </c>
-      <c r="G99" s="1">
-        <v>1</v>
-      </c>
-      <c r="H99" s="1">
-        <v>0.48</v>
-      </c>
-      <c r="I99" s="1">
-        <v>-2.5499999999999998</v>
-      </c>
-      <c r="J99" s="1">
-        <v>-2.85</v>
-      </c>
-      <c r="K99" s="1">
-        <v>-2.91</v>
-      </c>
-      <c r="L99" s="1">
-        <v>-1.82</v>
-      </c>
-      <c r="M99" s="1">
-        <v>-1.93</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A100" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="B100" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="C100" s="15" t="s">
-        <v>269</v>
-      </c>
-      <c r="D100" s="15">
-        <v>377.27</v>
-      </c>
-      <c r="E100" s="1">
-        <v>12</v>
-      </c>
-      <c r="F100" s="1">
-        <v>6</v>
-      </c>
-      <c r="G100" s="1">
-        <v>1</v>
-      </c>
-      <c r="H100" s="15">
-        <v>0.81</v>
-      </c>
-      <c r="I100" s="15">
-        <v>-1.81</v>
-      </c>
-      <c r="J100" s="15">
-        <v>-1.41</v>
-      </c>
-      <c r="K100" s="15">
-        <v>-2.64</v>
-      </c>
-      <c r="L100" s="1">
-        <v>-1.48</v>
-      </c>
-      <c r="M100" s="1">
-        <v>-1.31</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A101" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="B101" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="C101" s="15" t="s">
-        <v>269</v>
-      </c>
-      <c r="D101" s="1">
-        <v>377.27</v>
-      </c>
-      <c r="E101" s="1">
-        <v>12</v>
-      </c>
-      <c r="F101" s="1">
-        <v>6</v>
-      </c>
-      <c r="G101" s="1">
-        <v>1</v>
-      </c>
-      <c r="H101" s="1">
-        <v>0.81</v>
-      </c>
-      <c r="I101" s="1">
-        <v>-1.81</v>
-      </c>
-      <c r="J101" s="1">
-        <v>-1.41</v>
-      </c>
-      <c r="K101" s="1">
-        <v>-2.64</v>
-      </c>
-      <c r="L101" s="1">
-        <v>-1.48</v>
-      </c>
-      <c r="M101" s="1">
-        <v>-1.31</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A102" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="B102" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="C102" s="15" t="s">
-        <v>274</v>
-      </c>
-      <c r="D102" s="1">
-        <v>343.71</v>
-      </c>
-      <c r="E102" s="1">
-        <v>9</v>
-      </c>
-      <c r="F102" s="1">
-        <v>7</v>
-      </c>
-      <c r="G102" s="1">
-        <v>1</v>
-      </c>
-      <c r="H102" s="1">
-        <v>-0.94</v>
-      </c>
-      <c r="I102" s="1">
-        <v>-2.84</v>
-      </c>
-      <c r="J102" s="1">
-        <v>-3.65</v>
-      </c>
-      <c r="K102" s="1">
-        <v>-3.04</v>
-      </c>
-      <c r="L102" s="1">
-        <v>-2.13</v>
-      </c>
-      <c r="M102" s="1">
-        <v>-2.52</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A103" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="B103" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="C103" s="15" t="s">
-        <v>277</v>
-      </c>
-      <c r="D103" s="15">
-        <v>388.17</v>
-      </c>
-      <c r="E103" s="1">
-        <v>9</v>
-      </c>
-      <c r="F103" s="1">
-        <v>7</v>
-      </c>
-      <c r="G103" s="1">
-        <v>1</v>
-      </c>
-      <c r="H103" s="1">
-        <v>-0.09</v>
-      </c>
-      <c r="I103" s="1">
-        <v>-2.67</v>
-      </c>
-      <c r="J103" s="1">
-        <v>-3.5</v>
-      </c>
-      <c r="K103" s="1">
-        <v>-2.91</v>
-      </c>
-      <c r="L103" s="1">
-        <v>-2.09</v>
-      </c>
-      <c r="M103" s="1">
-        <v>-2.25</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A104" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="B104" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="C104" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="D104" s="15">
-        <v>323.3</v>
-      </c>
-      <c r="E104" s="1">
-        <v>9</v>
-      </c>
-      <c r="F104" s="1">
-        <v>6</v>
-      </c>
-      <c r="G104" s="1">
-        <v>1</v>
-      </c>
-      <c r="H104" s="1">
-        <v>-0.47</v>
-      </c>
-      <c r="I104" s="1">
-        <v>-2.93</v>
-      </c>
-      <c r="J104" s="1">
-        <v>-3.22</v>
-      </c>
-      <c r="K104" s="1">
-        <v>-3.04</v>
-      </c>
-      <c r="L104" s="1">
-        <v>-2.15</v>
-      </c>
-      <c r="M104" s="1">
-        <v>-2.36</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A105" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="B105" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="C105" s="15" t="s">
-        <v>282</v>
-      </c>
-      <c r="D105" s="15">
-        <v>410.48</v>
-      </c>
-      <c r="E105" s="1">
-        <v>9</v>
-      </c>
-      <c r="F105" s="1">
-        <v>7</v>
-      </c>
-      <c r="G105" s="1">
-        <v>1</v>
-      </c>
-      <c r="H105" s="1">
-        <v>1.18</v>
-      </c>
-      <c r="I105" s="1">
-        <v>-4.74</v>
-      </c>
-      <c r="J105" s="1">
-        <v>-2.35</v>
-      </c>
-      <c r="K105" s="1">
-        <v>-2.41</v>
-      </c>
-      <c r="L105" s="1">
-        <v>-0.82</v>
-      </c>
-      <c r="M105" s="1">
-        <v>-1.83</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A106" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="B106" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="C106" s="15" t="s">
-        <v>260</v>
-      </c>
-      <c r="D106" s="15">
-        <v>399.39</v>
-      </c>
-      <c r="E106" s="1">
-        <v>9</v>
-      </c>
-      <c r="F106" s="1">
-        <v>6</v>
-      </c>
-      <c r="G106" s="1">
-        <v>1</v>
-      </c>
-      <c r="H106" s="1">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="I106" s="1">
-        <v>-1.43</v>
-      </c>
-      <c r="J106" s="1">
-        <v>-1.8</v>
-      </c>
-      <c r="K106" s="1">
-        <v>-1.8</v>
-      </c>
-      <c r="L106" s="1">
-        <v>-0.64</v>
-      </c>
-      <c r="M106" s="1">
-        <v>-0.91</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A107" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="B107" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="C107" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="D107" s="15">
-        <v>322.31</v>
-      </c>
-      <c r="E107" s="1">
-        <v>8</v>
-      </c>
-      <c r="F107" s="1">
-        <v>6</v>
-      </c>
-      <c r="G107" s="1">
-        <v>1</v>
-      </c>
-      <c r="H107" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="I107" s="1">
-        <v>-3.58</v>
-      </c>
-      <c r="J107" s="1">
-        <v>-3.82</v>
-      </c>
-      <c r="K107" s="1">
-        <v>-3.45</v>
-      </c>
-      <c r="L107" s="1">
-        <v>-2.39</v>
-      </c>
-      <c r="M107" s="1">
-        <v>-2.64</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A108" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="B108" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="C108" s="15" t="s">
-        <v>288</v>
-      </c>
-      <c r="D108" s="15">
-        <v>498.52</v>
-      </c>
-      <c r="E108" s="1">
-        <v>10</v>
-      </c>
-      <c r="F108" s="1">
-        <v>7</v>
-      </c>
-      <c r="G108" s="1">
-        <v>2</v>
-      </c>
-      <c r="H108" s="1">
-        <v>2.11</v>
-      </c>
-      <c r="I108" s="1">
-        <v>-1.47</v>
-      </c>
-      <c r="J108" s="1">
-        <v>-1.51</v>
-      </c>
-      <c r="K108" s="1">
-        <v>-1.87</v>
-      </c>
-      <c r="L108" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="M108" s="1">
-        <v>-0.51</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A109" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="B109" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="C109" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="D109" s="1">
-        <v>323.3</v>
-      </c>
-      <c r="E109" s="1">
-        <v>9</v>
-      </c>
-      <c r="F109" s="1">
-        <v>7</v>
-      </c>
-      <c r="G109" s="1">
-        <v>1</v>
-      </c>
-      <c r="H109" s="1">
-        <v>-0.64</v>
-      </c>
-      <c r="I109" s="1">
-        <v>-3.28</v>
-      </c>
-      <c r="J109" s="1">
-        <v>-3.48</v>
-      </c>
-      <c r="K109" s="1">
-        <v>-3.04</v>
-      </c>
-      <c r="L109" s="1">
-        <v>-2.19</v>
-      </c>
-      <c r="M109" s="1">
-        <v>-2.5299999999999998</v>
-      </c>
-    </row>
-    <row r="110" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A110" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="B110" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="C110" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="D110" s="15">
-        <v>325.27</v>
-      </c>
-      <c r="E110" s="1">
-        <v>10</v>
-      </c>
-      <c r="F110" s="1">
-        <v>8</v>
-      </c>
-      <c r="G110" s="1">
-        <v>2</v>
-      </c>
-      <c r="H110" s="1">
-        <v>-1.1000000000000001</v>
-      </c>
-      <c r="I110" s="1">
-        <v>-3.89</v>
-      </c>
-      <c r="J110" s="1">
-        <v>-4.9000000000000004</v>
-      </c>
-      <c r="K110" s="1">
-        <v>-4.09</v>
-      </c>
-      <c r="L110" s="1">
-        <v>-3.53</v>
-      </c>
-      <c r="M110" s="1">
-        <v>-3.5</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A111" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="B111" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="C111" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D111" s="15">
-        <v>293.27</v>
-      </c>
-      <c r="E111" s="1">
-        <v>8</v>
-      </c>
-      <c r="F111" s="1">
-        <v>6</v>
-      </c>
-      <c r="G111" s="1">
-        <v>1</v>
-      </c>
-      <c r="H111" s="1">
-        <v>4</v>
-      </c>
-      <c r="I111" s="1">
-        <v>-2.7</v>
-      </c>
-      <c r="J111" s="1">
-        <v>-3.19</v>
-      </c>
-      <c r="K111" s="1">
-        <v>-2.96</v>
-      </c>
-      <c r="L111" s="1">
-        <v>-2.23</v>
-      </c>
-      <c r="M111" s="1">
-        <v>-2.21</v>
-      </c>
-    </row>
-    <row r="112" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A112" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="B112" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="C112" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="D112" s="15">
-        <v>309.27</v>
-      </c>
-      <c r="E112" s="1">
-        <v>9</v>
-      </c>
-      <c r="F112" s="1">
-        <v>7</v>
-      </c>
-      <c r="G112" s="1">
-        <v>1</v>
-      </c>
-      <c r="H112" s="1">
-        <v>-0.34</v>
-      </c>
-      <c r="I112" s="1">
-        <v>-3.47</v>
-      </c>
-      <c r="J112" s="1">
-        <v>-3.87</v>
-      </c>
-      <c r="K112" s="1">
-        <v>-3.32</v>
-      </c>
-      <c r="L112" s="1">
-        <v>-2.68</v>
-      </c>
-      <c r="M112" s="1">
-        <v>-2.74</v>
-      </c>
-    </row>
-    <row r="113" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A113" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="B113" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="C113" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D113" s="15">
-        <v>293.27</v>
-      </c>
-      <c r="E113" s="1">
-        <v>8</v>
-      </c>
-      <c r="F113" s="1">
-        <v>6</v>
-      </c>
-      <c r="G113" s="1">
-        <v>1</v>
-      </c>
-      <c r="H113" s="1">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="I113" s="1">
-        <v>-2.7</v>
-      </c>
-      <c r="J113" s="1">
-        <v>-3.19</v>
-      </c>
-      <c r="K113" s="1">
-        <v>-2.96</v>
-      </c>
-      <c r="L113" s="1">
-        <v>-2.23</v>
-      </c>
-      <c r="M113" s="1">
-        <v>-2.19</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A114" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="B114" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="C114" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="D114" s="15">
-        <v>292.29000000000002</v>
-      </c>
-      <c r="E114" s="1">
-        <v>8</v>
-      </c>
-      <c r="F114" s="1">
-        <v>6</v>
-      </c>
-      <c r="G114" s="1">
-        <v>1</v>
-      </c>
-      <c r="H114" s="1">
-        <v>-0.02</v>
-      </c>
-      <c r="I114" s="1">
-        <v>-5.24</v>
-      </c>
-      <c r="J114" s="1">
-        <v>-3.23</v>
-      </c>
-      <c r="K114" s="1">
-        <v>-2.96</v>
-      </c>
-      <c r="L114" s="1">
-        <v>-2.46</v>
-      </c>
-      <c r="M114" s="1">
-        <v>-2.78</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A115" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="B115" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="C115" s="15" t="s">
-        <v>303</v>
-      </c>
-      <c r="D115" s="15">
-        <v>318.27999999999997</v>
-      </c>
-      <c r="E115" s="1">
-        <v>10</v>
-      </c>
-      <c r="F115" s="1">
-        <v>5</v>
-      </c>
-      <c r="G115" s="1">
-        <v>1</v>
-      </c>
-      <c r="H115" s="1">
-        <v>0.77</v>
-      </c>
-      <c r="I115" s="1">
-        <v>-1.1399999999999999</v>
-      </c>
-      <c r="J115" s="1">
-        <v>-1.87</v>
-      </c>
-      <c r="K115" s="1">
-        <v>-3.06</v>
-      </c>
-      <c r="L115" s="1">
-        <v>-2.91</v>
-      </c>
-      <c r="M115" s="1">
-        <v>-1.64</v>
-      </c>
-    </row>
-    <row r="116" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A116" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="B116" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="C116" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="D116" s="15">
-        <v>337.32</v>
-      </c>
-      <c r="E116" s="1">
-        <v>9</v>
-      </c>
-      <c r="F116" s="1">
-        <v>7</v>
-      </c>
-      <c r="G116" s="1">
-        <v>1</v>
-      </c>
-      <c r="H116" s="1">
-        <v>0.66</v>
-      </c>
-      <c r="I116" s="1">
-        <v>-2.64</v>
-      </c>
-      <c r="J116" s="1">
-        <v>-3.09</v>
-      </c>
-      <c r="K116" s="1">
-        <v>-2.77</v>
-      </c>
-      <c r="L116" s="1">
-        <v>-1.92</v>
-      </c>
-      <c r="M116" s="1">
-        <v>-1.95</v>
-      </c>
-    </row>
-    <row r="117" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A117" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="B117" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="C117" s="15" t="s">
-        <v>308</v>
-      </c>
-      <c r="D117" s="15">
-        <v>350.28</v>
-      </c>
-      <c r="E117" s="1">
-        <v>12</v>
-      </c>
-      <c r="F117" s="1">
-        <v>7</v>
-      </c>
-      <c r="G117" s="1">
-        <v>2</v>
-      </c>
-      <c r="H117" s="1">
-        <v>-0.98</v>
-      </c>
-      <c r="I117" s="1">
-        <v>-2.36</v>
-      </c>
-      <c r="J117" s="1">
-        <v>-3.58</v>
-      </c>
-      <c r="K117" s="1">
-        <v>-4.1500000000000004</v>
-      </c>
-      <c r="L117" s="1">
-        <v>-3.92</v>
-      </c>
-      <c r="M117" s="1">
-        <v>-2.98</v>
-      </c>
-    </row>
-    <row r="118" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A118" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="B118" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="C118" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="D118" s="15">
-        <v>309.27</v>
-      </c>
-      <c r="E118" s="1">
-        <v>9</v>
-      </c>
-      <c r="F118" s="1">
-        <v>7</v>
-      </c>
-      <c r="G118" s="1">
-        <v>1</v>
-      </c>
-      <c r="H118" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="I118" s="1">
-        <v>-3.47</v>
-      </c>
-      <c r="J118" s="1">
-        <v>-3.87</v>
-      </c>
-      <c r="K118" s="1">
-        <v>-3.32</v>
-      </c>
-      <c r="L118" s="1">
-        <v>-2.68</v>
-      </c>
-      <c r="M118" s="1">
-        <v>-2.63</v>
-      </c>
-    </row>
-    <row r="119" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A119" s="16" t="s">
-        <v>311</v>
-      </c>
-      <c r="B119" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="C119" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="D119" s="15">
-        <v>308.29000000000002</v>
-      </c>
-      <c r="E119" s="1">
-        <v>8</v>
-      </c>
-      <c r="F119" s="1">
-        <v>7</v>
-      </c>
-      <c r="G119" s="1">
-        <v>1</v>
-      </c>
-      <c r="H119" s="1">
-        <v>-0.28999999999999998</v>
-      </c>
-      <c r="I119" s="1">
-        <v>-4.12</v>
-      </c>
-      <c r="J119" s="1">
-        <v>-4.47</v>
-      </c>
-      <c r="K119" s="1">
-        <v>-3.73</v>
-      </c>
-      <c r="L119" s="1">
-        <v>-2.92</v>
-      </c>
-      <c r="M119" s="1">
-        <v>-3.11</v>
-      </c>
-    </row>
-    <row r="120" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A120" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="B120" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="C120" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="D120" s="15">
-        <v>323.3</v>
-      </c>
-      <c r="E120" s="1">
-        <v>9</v>
-      </c>
-      <c r="F120" s="1">
-        <v>6</v>
-      </c>
-      <c r="G120" s="1">
-        <v>1</v>
-      </c>
-      <c r="H120" s="1">
-        <v>0</v>
-      </c>
-      <c r="I120" s="1">
-        <v>-2.93</v>
-      </c>
-      <c r="J120" s="1">
-        <v>-3.22</v>
-      </c>
-      <c r="K120" s="1">
-        <v>-3.04</v>
-      </c>
-      <c r="L120" s="1">
-        <v>-2.15</v>
-      </c>
-      <c r="M120" s="1">
-        <v>-2.27</v>
-      </c>
-    </row>
-    <row r="121" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A121" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="B121" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="C121" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="D121" s="15">
-        <v>337.32</v>
-      </c>
-      <c r="E121" s="1">
-        <v>9</v>
-      </c>
-      <c r="F121" s="1">
-        <v>5</v>
-      </c>
-      <c r="G121" s="1">
-        <v>0</v>
-      </c>
-      <c r="H121" s="1">
-        <v>1.86</v>
-      </c>
-      <c r="I121" s="1">
-        <v>-2.6</v>
-      </c>
-      <c r="J121" s="1">
-        <v>-3.13</v>
-      </c>
-      <c r="K121" s="1">
-        <v>-2.77</v>
-      </c>
-      <c r="L121" s="1">
-        <v>-1.62</v>
-      </c>
-      <c r="M121" s="1">
-        <v>-1.65</v>
-      </c>
-    </row>
-    <row r="122" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A122" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="B122" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="C122" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="D122" s="15">
-        <v>323.3</v>
-      </c>
-      <c r="E122" s="1">
-        <v>9</v>
-      </c>
-      <c r="F122" s="1">
-        <v>6</v>
-      </c>
-      <c r="G122" s="1">
-        <v>1</v>
-      </c>
-      <c r="H122" s="1">
-        <v>0</v>
-      </c>
-      <c r="I122" s="1">
-        <v>-2.93</v>
-      </c>
-      <c r="J122" s="1">
-        <v>-3.22</v>
-      </c>
-      <c r="K122" s="1">
-        <v>-3.04</v>
-      </c>
-      <c r="L122" s="1">
-        <v>-2.15</v>
-      </c>
-      <c r="M122" s="1">
-        <v>-2.27</v>
-      </c>
-    </row>
-    <row r="123" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A123" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="B123" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="C123" s="15" t="s">
-        <v>234</v>
-      </c>
-      <c r="D123" s="15">
-        <v>351.35</v>
-      </c>
-      <c r="E123" s="1">
-        <v>9</v>
-      </c>
-      <c r="F123" s="1">
-        <v>5</v>
-      </c>
-      <c r="G123" s="1">
-        <v>0</v>
-      </c>
-      <c r="H123" s="1">
-        <v>1.99</v>
-      </c>
-      <c r="I123" s="1">
-        <v>-2.2400000000000002</v>
-      </c>
-      <c r="J123" s="1">
-        <v>-2.74</v>
-      </c>
-      <c r="K123" s="1">
-        <v>-2.5099999999999998</v>
-      </c>
-      <c r="L123" s="1">
-        <v>-1.22</v>
-      </c>
-      <c r="M123" s="1">
-        <v>-1.35</v>
-      </c>
-    </row>
-    <row r="124" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A124" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="B124" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="C124" s="15" t="s">
-        <v>322</v>
-      </c>
-      <c r="D124" s="15">
-        <v>282.24</v>
-      </c>
-      <c r="E124" s="1">
-        <v>9</v>
-      </c>
-      <c r="F124" s="1">
-        <v>6</v>
-      </c>
-      <c r="G124" s="1">
-        <v>1</v>
-      </c>
-      <c r="H124" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="I124" s="1">
-        <v>-2.93</v>
-      </c>
-      <c r="J124" s="1">
-        <v>-3.36</v>
-      </c>
-      <c r="K124" s="1">
-        <v>-3.15</v>
-      </c>
-      <c r="L124" s="1">
-        <v>-2.3199999999999998</v>
-      </c>
-      <c r="M124" s="1">
-        <v>-2.31</v>
-      </c>
-    </row>
-    <row r="125" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A125" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="B125" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="C125" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="D125" s="15">
-        <v>307.3</v>
-      </c>
-      <c r="E125" s="1">
-        <v>8</v>
-      </c>
-      <c r="F125" s="1">
-        <v>5</v>
-      </c>
-      <c r="G125" s="1">
-        <v>0</v>
-      </c>
-      <c r="H125" s="1">
-        <v>0.94</v>
-      </c>
-      <c r="I125" s="1">
-        <v>-1.88</v>
-      </c>
-      <c r="J125" s="1">
-        <v>-2.19</v>
-      </c>
-      <c r="K125" s="1">
-        <v>-2.27</v>
-      </c>
-      <c r="L125" s="1">
-        <v>-1.59</v>
-      </c>
-      <c r="M125" s="1">
-        <v>-1.4</v>
-      </c>
-    </row>
-    <row r="126" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A126" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="B126" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="C126" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="D126" s="15">
-        <v>307.3</v>
-      </c>
-      <c r="E126" s="1">
-        <v>8</v>
-      </c>
-      <c r="F126" s="1">
-        <v>5</v>
-      </c>
-      <c r="G126" s="1">
-        <v>0</v>
-      </c>
-      <c r="H126" s="1">
-        <v>0.94</v>
-      </c>
-      <c r="I126" s="1">
-        <v>-1.88</v>
-      </c>
-      <c r="J126" s="1">
-        <v>-2.19</v>
-      </c>
-      <c r="K126" s="1">
-        <v>-2.27</v>
-      </c>
-      <c r="L126" s="1">
-        <v>-1.59</v>
-      </c>
-      <c r="M126" s="1">
-        <v>-1.4</v>
-      </c>
-    </row>
-    <row r="127" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A127" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="B127" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="C127" s="15" t="s">
-        <v>329</v>
-      </c>
-      <c r="D127" s="15">
-        <v>348.31</v>
-      </c>
-      <c r="E127" s="1">
-        <v>11</v>
-      </c>
-      <c r="F127" s="1">
-        <v>5</v>
-      </c>
-      <c r="G127" s="1">
-        <v>1</v>
-      </c>
-      <c r="H127" s="1">
-        <v>1.06</v>
-      </c>
-      <c r="I127" s="1">
-        <v>-1.34</v>
-      </c>
-      <c r="J127" s="1">
-        <v>-1.9</v>
-      </c>
-      <c r="K127" s="1">
-        <v>-3.12</v>
-      </c>
-      <c r="L127" s="1">
-        <v>-2.84</v>
-      </c>
-      <c r="M127" s="1">
-        <v>-1.63</v>
-      </c>
-    </row>
-    <row r="128" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A128" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="B128" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="C128" s="15" t="s">
-        <v>332</v>
-      </c>
-      <c r="D128" s="15">
-        <v>321.27999999999997</v>
-      </c>
-      <c r="E128" s="1">
-        <v>9</v>
-      </c>
-      <c r="F128" s="1">
-        <v>5</v>
-      </c>
-      <c r="G128" s="1">
-        <v>0</v>
-      </c>
-      <c r="H128" s="1">
-        <v>0.21</v>
-      </c>
-      <c r="I128" s="1">
-        <v>-2.56</v>
-      </c>
-      <c r="J128" s="1">
-        <v>-3.01</v>
-      </c>
-      <c r="K128" s="1">
-        <v>-3.14</v>
-      </c>
-      <c r="L128" s="1">
-        <v>-1.83</v>
-      </c>
-      <c r="M128" s="1">
-        <v>-2.0699999999999998</v>
-      </c>
-    </row>
-    <row r="129" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A129" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="B129" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="C129" s="15" t="s">
-        <v>335</v>
-      </c>
-      <c r="D129" s="15">
-        <v>335.35</v>
-      </c>
-      <c r="E129" s="1">
-        <v>8</v>
-      </c>
-      <c r="F129" s="1">
-        <v>5</v>
-      </c>
-      <c r="G129" s="1">
-        <v>0</v>
-      </c>
-      <c r="H129" s="1">
-        <v>1.04</v>
-      </c>
-      <c r="I129" s="1">
-        <v>-1.1200000000000001</v>
-      </c>
-      <c r="J129" s="1">
-        <v>-1.55</v>
-      </c>
-      <c r="K129" s="1">
-        <v>-1.74</v>
-      </c>
-      <c r="L129" s="1">
-        <v>-0.95</v>
-      </c>
-      <c r="M129" s="1">
-        <v>-0.87</v>
-      </c>
-    </row>
-    <row r="130" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A130" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="B130" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="C130" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="D130" s="15">
-        <v>307.26</v>
-      </c>
-      <c r="E130" s="1">
-        <v>11</v>
-      </c>
-      <c r="F130" s="1">
-        <v>5</v>
-      </c>
-      <c r="G130" s="1">
-        <v>1</v>
-      </c>
-      <c r="H130" s="1">
-        <v>0.13</v>
-      </c>
-      <c r="I130" s="1">
-        <v>-1.92</v>
-      </c>
-      <c r="J130" s="1">
-        <v>-2.04</v>
-      </c>
-      <c r="K130" s="1">
-        <v>-3.26</v>
-      </c>
-      <c r="L130" s="1">
-        <v>-3</v>
-      </c>
-      <c r="M130" s="1">
-        <v>-2.02</v>
-      </c>
-    </row>
-    <row r="131" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A131" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="B131" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="C131" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="D131" s="15">
-        <v>307.26</v>
-      </c>
-      <c r="E131" s="1">
-        <v>11</v>
-      </c>
-      <c r="F131" s="1">
-        <v>5</v>
-      </c>
-      <c r="G131" s="1">
-        <v>1</v>
-      </c>
-      <c r="H131" s="1">
-        <v>0.13</v>
-      </c>
-      <c r="I131" s="1">
-        <v>-1.92</v>
-      </c>
-      <c r="J131" s="1">
-        <v>-2.04</v>
-      </c>
-      <c r="K131" s="1">
-        <v>-3.26</v>
-      </c>
-      <c r="L131" s="1">
-        <v>-3</v>
-      </c>
-      <c r="M131" s="1">
-        <v>-2.02</v>
-      </c>
-    </row>
-    <row r="132" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A132" s="17" t="s">
-        <v>339</v>
-      </c>
-      <c r="B132" s="17" t="s">
-        <v>340</v>
-      </c>
-      <c r="C132" s="18" t="s">
-        <v>341</v>
-      </c>
-      <c r="D132" s="1">
-        <v>530.53</v>
-      </c>
-      <c r="E132" s="1">
-        <v>14</v>
-      </c>
-      <c r="F132" s="1">
-        <v>1</v>
-      </c>
-      <c r="G132" s="1">
-        <v>2</v>
-      </c>
-      <c r="H132" s="1">
-        <v>0</v>
-      </c>
-      <c r="I132" s="1">
-        <v>1.74</v>
-      </c>
-      <c r="J132" s="1">
-        <v>0.93</v>
-      </c>
-      <c r="K132" s="1">
-        <v>-0.74</v>
-      </c>
-      <c r="L132" s="1">
-        <v>0.12</v>
-      </c>
-      <c r="M132" s="1">
-        <v>0.41</v>
-      </c>
-    </row>
-    <row r="133" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A133" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="B133" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="C133" s="15" t="s">
-        <v>344</v>
-      </c>
-      <c r="D133" s="15">
-        <v>455.42</v>
-      </c>
-      <c r="E133" s="1">
-        <v>13</v>
-      </c>
-      <c r="F133" s="1">
-        <v>1</v>
-      </c>
-      <c r="G133" s="1">
-        <v>1</v>
-      </c>
-      <c r="H133" s="1">
-        <v>2.59</v>
-      </c>
-      <c r="I133" s="1">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="J133" s="1">
-        <v>-0.1</v>
-      </c>
-      <c r="K133" s="1">
-        <v>-2.12</v>
-      </c>
-      <c r="L133" s="1">
-        <v>-0.82</v>
-      </c>
-      <c r="M133" s="1">
-        <v>-0.06</v>
-      </c>
-    </row>
-    <row r="134" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A134" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="B134" s="5" t="s">
-        <v>346</v>
-      </c>
-      <c r="C134" s="15" t="s">
-        <v>347</v>
-      </c>
-      <c r="D134" s="15">
-        <v>546.55999999999995</v>
-      </c>
-      <c r="E134" s="1">
-        <v>12</v>
-      </c>
-      <c r="F134" s="1">
-        <v>2</v>
-      </c>
-      <c r="G134" s="1">
-        <v>2</v>
-      </c>
-      <c r="H134" s="1">
-        <v>4.05</v>
-      </c>
-      <c r="I134" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="J134" s="1">
-        <v>-0.25</v>
-      </c>
-      <c r="K134" s="1">
-        <v>-0.72</v>
-      </c>
-      <c r="L134" s="1">
-        <v>1.06</v>
-      </c>
-      <c r="M134" s="1">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="135" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A135" s="5" t="s">
-        <v>348</v>
-      </c>
-      <c r="B135" s="5" t="s">
-        <v>349</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="D135" s="15">
-        <v>472.44</v>
-      </c>
-      <c r="E135" s="1">
-        <v>12</v>
-      </c>
-      <c r="F135" s="1">
-        <v>1</v>
-      </c>
-      <c r="G135" s="1">
-        <v>1</v>
-      </c>
-      <c r="H135" s="1">
-        <v>2.25</v>
-      </c>
-      <c r="I135" s="1">
-        <v>-0.88</v>
-      </c>
-      <c r="J135" s="1">
-        <v>-0.84</v>
-      </c>
-      <c r="K135" s="1">
-        <v>-1.65</v>
-      </c>
-      <c r="L135" s="1">
-        <v>0.43</v>
-      </c>
-      <c r="M135" s="1">
-        <v>-0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="136" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A136" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="B136" s="5" t="s">
-        <v>352</v>
-      </c>
-      <c r="C136" s="15" t="s">
-        <v>353</v>
-      </c>
-      <c r="D136" s="15">
-        <v>475.44</v>
-      </c>
-      <c r="E136" s="1">
-        <v>12</v>
-      </c>
-      <c r="F136" s="1">
-        <v>1</v>
-      </c>
-      <c r="G136" s="1">
-        <v>1</v>
-      </c>
-      <c r="H136" s="1">
-        <v>3.39</v>
-      </c>
-      <c r="I136" s="1">
-        <v>-0.63</v>
-      </c>
-      <c r="J136" s="1">
-        <v>-0.82</v>
-      </c>
-      <c r="K136" s="1">
-        <v>-0.84</v>
-      </c>
-      <c r="L136" s="1">
-        <v>0.46</v>
-      </c>
-      <c r="M136" s="1">
-        <v>0.31</v>
-      </c>
-    </row>
-    <row r="137" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A137" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="B137" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="C137" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="D137" s="15">
-        <v>323.3</v>
-      </c>
-      <c r="E137" s="1">
-        <v>9</v>
-      </c>
-      <c r="F137" s="1">
-        <v>6</v>
-      </c>
-      <c r="G137" s="1">
-        <v>1</v>
-      </c>
-      <c r="H137" s="1">
-        <v>-0.47</v>
-      </c>
-      <c r="I137" s="1">
-        <v>-2.93</v>
-      </c>
-      <c r="J137" s="1">
-        <v>-3.22</v>
-      </c>
-      <c r="K137" s="1">
-        <v>-3.04</v>
-      </c>
-      <c r="L137" s="1">
-        <v>-2.15</v>
-      </c>
-      <c r="M137" s="1">
-        <v>-2.36</v>
-      </c>
-    </row>
-    <row r="138" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A138" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="B138" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="C138" s="15" t="s">
-        <v>358</v>
-      </c>
-      <c r="D138" s="15">
-        <v>426.42</v>
-      </c>
-      <c r="E138" s="1">
-        <v>9</v>
-      </c>
-      <c r="F138" s="1">
-        <v>6</v>
-      </c>
-      <c r="G138" s="1">
-        <v>2</v>
-      </c>
-      <c r="H138" s="1">
-        <v>0.46</v>
-      </c>
-      <c r="I138" s="1">
-        <v>-1.27</v>
-      </c>
-      <c r="J138" s="1">
-        <v>-1.78</v>
-      </c>
-      <c r="K138" s="1">
-        <v>-1.73</v>
-      </c>
-      <c r="L138" s="1">
-        <v>-0.85</v>
-      </c>
-      <c r="M138" s="1">
-        <v>-1.03</v>
-      </c>
-    </row>
-    <row r="139" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A139" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="B139" s="5" t="s">
-        <v>360</v>
-      </c>
-      <c r="C139" s="15" t="s">
-        <v>361</v>
-      </c>
-      <c r="D139" s="15">
-        <v>364.35</v>
-      </c>
-      <c r="E139" s="1">
-        <v>9</v>
-      </c>
-      <c r="F139" s="1">
-        <v>6</v>
-      </c>
-      <c r="G139" s="1">
-        <v>2</v>
-      </c>
-      <c r="H139" s="1">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="I139" s="1">
-        <v>-2.93</v>
-      </c>
-      <c r="J139" s="1">
-        <v>-3.07</v>
-      </c>
-      <c r="K139" s="1">
-        <v>-2.96</v>
-      </c>
-      <c r="L139" s="1">
-        <v>-1.96</v>
-      </c>
-      <c r="M139" s="1">
-        <v>-2.0699999999999998</v>
-      </c>
-    </row>
-    <row r="140" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A140" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="B140" s="5" t="s">
-        <v>363</v>
-      </c>
-      <c r="C140" s="15" t="s">
-        <v>364</v>
-      </c>
-      <c r="D140" s="15">
-        <v>476.48</v>
-      </c>
-      <c r="E140" s="1">
-        <v>9</v>
-      </c>
-      <c r="F140" s="1">
-        <v>9</v>
-      </c>
-      <c r="G140" s="1">
-        <v>2</v>
-      </c>
-      <c r="H140" s="1">
-        <v>1.86</v>
-      </c>
-      <c r="I140" s="1">
-        <v>-0.02</v>
-      </c>
-      <c r="J140" s="1">
-        <v>-0.63</v>
-      </c>
-      <c r="K140" s="1">
-        <v>-1.04</v>
-      </c>
-      <c r="L140" s="1">
-        <v>0.21</v>
-      </c>
-      <c r="M140" s="1">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="141" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A141" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="B141" s="5" t="s">
-        <v>366</v>
-      </c>
-      <c r="C141" s="15" t="s">
-        <v>367</v>
-      </c>
-      <c r="D141" s="15">
-        <v>502.51</v>
-      </c>
-      <c r="E141" s="1">
-        <v>9</v>
-      </c>
-      <c r="F141" s="1">
-        <v>6</v>
-      </c>
-      <c r="G141" s="1">
-        <v>3</v>
-      </c>
-      <c r="H141" s="1">
-        <v>1.92</v>
-      </c>
-      <c r="I141" s="1">
-        <v>0.35</v>
-      </c>
-      <c r="J141" s="1">
-        <v>-0.11</v>
-      </c>
-      <c r="K141" s="1">
-        <v>-0.66</v>
-      </c>
-      <c r="L141" s="1">
-        <v>0.78</v>
-      </c>
-      <c r="M141" s="1">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="142" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A142" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="B142" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="C142" s="15" t="s">
-        <v>370</v>
-      </c>
-      <c r="D142" s="15">
-        <v>516.54</v>
-      </c>
-      <c r="E142" s="1">
-        <v>9</v>
-      </c>
-      <c r="F142" s="1">
-        <v>6</v>
-      </c>
-      <c r="G142" s="1">
-        <v>3</v>
-      </c>
-      <c r="H142" s="1">
-        <v>1.86</v>
-      </c>
-      <c r="I142" s="1">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="J142" s="1">
-        <v>-0.18</v>
-      </c>
-      <c r="K142" s="1">
-        <v>-0.73</v>
-      </c>
-      <c r="L142" s="1">
-        <v>1.19</v>
-      </c>
-      <c r="M142" s="1">
-        <v>0.49</v>
-      </c>
-    </row>
-    <row r="143" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A143" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="B143" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="C143" s="15" t="s">
-        <v>373</v>
-      </c>
-      <c r="D143" s="15">
-        <v>250.25</v>
-      </c>
-      <c r="E143" s="1">
-        <v>8</v>
-      </c>
-      <c r="F143" s="1">
-        <v>6</v>
-      </c>
-      <c r="G143" s="1">
-        <v>1</v>
-      </c>
-      <c r="H143" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="I143" s="1">
-        <v>-5.21</v>
-      </c>
-      <c r="J143" s="1">
-        <v>-3.06</v>
-      </c>
-      <c r="K143" s="1">
-        <v>-2.67</v>
-      </c>
-      <c r="L143" s="1">
-        <v>-2.74</v>
-      </c>
-      <c r="M143" s="1">
-        <v>-2.73</v>
-      </c>
-    </row>
-    <row r="144" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A144" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="B144" s="5" t="s">
-        <v>375</v>
-      </c>
-      <c r="C144" s="15" t="s">
-        <v>376</v>
-      </c>
-      <c r="D144" s="15">
-        <v>268.22000000000003</v>
-      </c>
-      <c r="E144" s="1">
-        <v>9</v>
-      </c>
-      <c r="F144" s="1">
-        <v>7</v>
-      </c>
-      <c r="G144" s="1">
-        <v>1</v>
-      </c>
-      <c r="H144" s="1">
-        <v>-1.32</v>
-      </c>
-      <c r="I144" s="1">
-        <v>-3.46</v>
-      </c>
-      <c r="J144" s="1">
-        <v>-4.0199999999999996</v>
-      </c>
-      <c r="K144" s="1">
-        <v>-3.45</v>
-      </c>
-      <c r="L144" s="1">
-        <v>-2.83</v>
-      </c>
-      <c r="M144" s="1">
-        <v>-3.01</v>
-      </c>
-    </row>
-    <row r="145" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A145" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="B145" s="5" t="s">
-        <v>378</v>
-      </c>
-      <c r="C145" s="15" t="s">
-        <v>379</v>
-      </c>
-      <c r="D145" s="15">
-        <v>335.31</v>
-      </c>
-      <c r="E145" s="1">
-        <v>9</v>
-      </c>
-      <c r="F145" s="1">
-        <v>7</v>
-      </c>
-      <c r="G145" s="1">
-        <v>1</v>
-      </c>
-      <c r="H145" s="1">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="I145" s="1">
-        <v>-2.64</v>
-      </c>
-      <c r="J145" s="1">
-        <v>-3.32</v>
-      </c>
-      <c r="K145" s="1">
-        <v>-2.87</v>
-      </c>
-      <c r="L145" s="1">
-        <v>-2.1</v>
-      </c>
-      <c r="M145" s="1">
-        <v>-2.13</v>
-      </c>
-    </row>
-    <row r="146" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A146" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="B146" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="C146" s="15" t="s">
-        <v>382</v>
-      </c>
-      <c r="D146" s="15">
-        <v>277.23</v>
-      </c>
-      <c r="E146" s="1">
-        <v>8</v>
-      </c>
-      <c r="F146" s="1">
-        <v>5</v>
-      </c>
-      <c r="G146" s="1">
-        <v>0</v>
-      </c>
-      <c r="H146" s="1">
-        <v>-0.74</v>
-      </c>
-      <c r="I146" s="1">
-        <v>-2.66</v>
-      </c>
-      <c r="J146" s="1">
-        <v>-3.03</v>
-      </c>
-      <c r="K146" s="1">
-        <v>-2.94</v>
-      </c>
-      <c r="L146" s="1">
-        <v>-2.0099999999999998</v>
-      </c>
-      <c r="M146" s="1">
-        <v>-2.2799999999999998</v>
-      </c>
-    </row>
-    <row r="147" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A147" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="B147" s="5" t="s">
-        <v>384</v>
-      </c>
-      <c r="C147" s="15" t="s">
-        <v>385</v>
-      </c>
-      <c r="D147" s="15">
-        <v>293.23</v>
-      </c>
-      <c r="E147" s="1">
-        <v>9</v>
-      </c>
-      <c r="F147" s="1">
-        <v>6</v>
-      </c>
-      <c r="G147" s="1">
-        <v>1</v>
-      </c>
-      <c r="H147" s="1">
-        <v>-0.66</v>
-      </c>
-      <c r="I147" s="1">
-        <v>-3.32</v>
-      </c>
-      <c r="J147" s="1">
-        <v>-4.05</v>
-      </c>
-      <c r="K147" s="1">
-        <v>-3.71</v>
-      </c>
-      <c r="L147" s="1">
-        <v>-2.58</v>
-      </c>
-      <c r="M147" s="1">
-        <v>-2.86</v>
-      </c>
-    </row>
-    <row r="148" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A148" s="5" t="s">
-        <v>386</v>
-      </c>
-      <c r="B148" s="5" t="s">
-        <v>387</v>
-      </c>
-      <c r="C148" s="15" t="s">
-        <v>388</v>
-      </c>
-      <c r="D148" s="15">
-        <v>263.2</v>
-      </c>
-      <c r="E148" s="1">
-        <v>8</v>
-      </c>
-      <c r="F148" s="1">
-        <v>5</v>
-      </c>
-      <c r="G148" s="1">
-        <v>0</v>
-      </c>
-      <c r="H148" s="1">
-        <v>-0.67</v>
-      </c>
-      <c r="I148" s="1">
-        <v>-2.7</v>
-      </c>
-      <c r="J148" s="1">
-        <v>-3.41</v>
-      </c>
-      <c r="K148" s="1">
-        <v>-3.25</v>
-      </c>
-      <c r="L148" s="1">
-        <v>-2.2000000000000002</v>
-      </c>
-      <c r="M148" s="1">
-        <v>-2.4500000000000002</v>
-      </c>
-    </row>
-    <row r="149" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A149" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="B149" s="5" t="s">
-        <v>390</v>
-      </c>
-      <c r="C149" s="15" t="s">
-        <v>391</v>
-      </c>
-      <c r="D149" s="15">
-        <v>248.23</v>
-      </c>
-      <c r="E149" s="1">
-        <v>6</v>
-      </c>
-      <c r="F149" s="1">
-        <v>5</v>
-      </c>
-      <c r="G149" s="1">
-        <v>0</v>
-      </c>
-      <c r="H149" s="1">
-        <v>-1.0900000000000001</v>
-      </c>
-      <c r="I149" s="1">
-        <v>-2.88</v>
-      </c>
-      <c r="J149" s="1">
-        <v>-3.19</v>
-      </c>
-      <c r="K149" s="1">
-        <v>-2.78</v>
-      </c>
-      <c r="L149" s="1">
-        <v>-2.1800000000000002</v>
-      </c>
-      <c r="M149" s="1">
-        <v>-2.42</v>
-      </c>
-    </row>
-    <row r="150" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A150" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="B150" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="C150" s="15" t="s">
-        <v>394</v>
-      </c>
-      <c r="D150" s="15">
-        <v>249.22</v>
-      </c>
-      <c r="E150" s="1">
-        <v>7</v>
-      </c>
-      <c r="F150" s="1">
-        <v>5</v>
-      </c>
-      <c r="G150" s="1">
-        <v>0</v>
-      </c>
-      <c r="H150" s="1">
-        <v>-0.48</v>
-      </c>
-      <c r="I150" s="1">
-        <v>-2.23</v>
-      </c>
-      <c r="J150" s="1">
-        <v>-2.59</v>
-      </c>
-      <c r="K150" s="1">
-        <v>-2.37</v>
-      </c>
-      <c r="L150" s="1">
-        <v>-1.94</v>
-      </c>
-      <c r="M150" s="1">
-        <v>-1.92</v>
-      </c>
-    </row>
-    <row r="151" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A151" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="B151" s="5" t="s">
-        <v>396</v>
-      </c>
-      <c r="C151" s="15" t="s">
-        <v>397</v>
-      </c>
-      <c r="D151" s="15">
-        <v>251.19</v>
-      </c>
-      <c r="E151" s="1">
-        <v>8</v>
-      </c>
-      <c r="F151" s="1">
-        <v>6</v>
-      </c>
-      <c r="G151" s="1">
-        <v>1</v>
-      </c>
-      <c r="H151" s="1">
-        <v>-0.67</v>
-      </c>
-      <c r="I151" s="1">
-        <v>-3.34</v>
-      </c>
-      <c r="J151" s="1">
-        <v>-3.66</v>
-      </c>
-      <c r="K151" s="1">
-        <v>-3.06</v>
-      </c>
-      <c r="L151" s="1">
-        <v>-2.85</v>
-      </c>
-      <c r="M151" s="1">
-        <v>-2.72</v>
-      </c>
-    </row>
-    <row r="152" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A152" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="B152" s="5" t="s">
-        <v>399</v>
-      </c>
-      <c r="C152" s="15" t="s">
-        <v>260</v>
-      </c>
-      <c r="D152" s="15">
-        <v>399.39</v>
-      </c>
-      <c r="E152" s="1">
-        <v>9</v>
-      </c>
-      <c r="F152" s="1">
-        <v>6</v>
-      </c>
-      <c r="G152" s="1">
-        <v>1</v>
-      </c>
-      <c r="H152" s="1">
-        <v>1.36</v>
-      </c>
-      <c r="I152" s="1">
-        <v>-1.43</v>
-      </c>
-      <c r="J152" s="1">
-        <v>-1.8</v>
-      </c>
-      <c r="K152" s="1">
-        <v>-1.8</v>
-      </c>
-      <c r="L152" s="1">
-        <v>-0.64</v>
-      </c>
-      <c r="M152" s="1">
-        <v>-0.86</v>
-      </c>
-    </row>
-    <row r="153" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A153" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="B153" s="5" t="s">
-        <v>401</v>
-      </c>
-      <c r="C153" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="D153" s="15">
-        <v>453.36</v>
-      </c>
-      <c r="E153" s="1">
-        <v>12</v>
-      </c>
-      <c r="F153" s="1">
-        <v>6</v>
-      </c>
-      <c r="G153" s="1">
-        <v>1</v>
-      </c>
-      <c r="H153" s="1">
-        <v>0.88</v>
-      </c>
-      <c r="I153" s="1">
-        <v>-0.32</v>
-      </c>
-      <c r="J153" s="1">
-        <v>0</v>
-      </c>
-      <c r="K153" s="1">
-        <v>-1.45</v>
-      </c>
-      <c r="L153" s="1">
-        <v>-0.02</v>
-      </c>
-      <c r="M153" s="1">
-        <v>-0.18</v>
-      </c>
-    </row>
-    <row r="154" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A154" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="B154" s="5" t="s">
-        <v>404</v>
-      </c>
-      <c r="C154" s="15" t="s">
-        <v>405</v>
-      </c>
-      <c r="D154" s="15">
-        <v>385.37</v>
-      </c>
-      <c r="E154" s="1">
-        <v>9</v>
-      </c>
-      <c r="F154" s="1">
-        <v>6</v>
-      </c>
-      <c r="G154" s="1">
-        <v>1</v>
-      </c>
-      <c r="H154" s="1">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="I154" s="1">
-        <v>-1.42</v>
-      </c>
-      <c r="J154" s="1">
-        <v>-2.19</v>
-      </c>
-      <c r="K154" s="1">
-        <v>-1.63</v>
-      </c>
-      <c r="L154" s="1">
-        <v>-0.89</v>
-      </c>
-      <c r="M154" s="1">
-        <v>-1.1200000000000001</v>
-      </c>
-    </row>
-    <row r="155" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A155" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="B155" s="19" t="s">
-        <v>407</v>
-      </c>
-      <c r="C155" s="15" t="s">
-        <v>408</v>
-      </c>
-      <c r="D155" s="15">
-        <v>478.29</v>
-      </c>
-      <c r="E155" s="1">
-        <v>9</v>
-      </c>
-      <c r="F155" s="1">
-        <v>6</v>
-      </c>
-      <c r="G155" s="1">
-        <v>1</v>
-      </c>
-      <c r="H155" s="1">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="I155" s="1">
-        <v>-0.64</v>
-      </c>
-      <c r="J155" s="1">
-        <v>-1.42</v>
-      </c>
-      <c r="K155" s="1">
-        <v>-1.45</v>
-      </c>
-      <c r="L155" s="1">
-        <v>-7.0000000000000007E-2</v>
-      </c>
-      <c r="M155" s="1">
-        <v>-0.49</v>
-      </c>
-    </row>
-    <row r="156" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A156" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="B156" s="5" t="s">
-        <v>410</v>
-      </c>
-      <c r="C156" s="15" t="s">
-        <v>411</v>
-      </c>
-      <c r="D156" s="15">
-        <v>457.43</v>
-      </c>
-      <c r="E156" s="1">
-        <v>11</v>
-      </c>
-      <c r="F156" s="1">
-        <v>7</v>
-      </c>
-      <c r="G156" s="1">
-        <v>2</v>
-      </c>
-      <c r="H156" s="1">
-        <v>0.92</v>
-      </c>
-      <c r="I156" s="1">
-        <v>-2</v>
-      </c>
-      <c r="J156" s="1">
-        <v>-1.95</v>
-      </c>
-      <c r="K156" s="1">
-        <v>-2.12</v>
-      </c>
-      <c r="L156" s="1">
-        <v>-0.85</v>
-      </c>
-      <c r="M156" s="1">
-        <v>-1.2</v>
-      </c>
+      <c r="D80" s="9"/>
+    </row>
+    <row r="81" spans="4:4" ht="12.5">
+      <c r="D81" s="9"/>
+    </row>
+    <row r="82" spans="4:4" ht="12.5">
+      <c r="D82" s="9"/>
+    </row>
+    <row r="83" spans="4:4" ht="12.5">
+      <c r="D83" s="9"/>
+    </row>
+    <row r="84" spans="4:4" ht="12.5">
+      <c r="D84" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
